--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 12772-2021</t>
+          <t>A 36955-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44270</v>
+        <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -901,20 +901,20 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>31.5</v>
+        <v>7.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -925,15 +925,210 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
         <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>7</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka
+Svart taggsvamp
+Talltita
+Björksplintborre
+Dropptaggsvamp
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 35012-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik
+Vedskivlav
+Vedtrappmossa
+Blodticka
+Flagellkvastmossa
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 12772-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44270</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skogshare
 Gulvaxing
@@ -944,237 +1139,42 @@
 Ängsvaxskivling</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12772-2021 artfynd.xlsx", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12772-2021 karta.png", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12772-2021 FSC-klagomål.docx", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12772-2021 FSC-klagomål mail.docx", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12772-2021 tillsynsbegäran.docx", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12772-2021 tillsynsbegäran mail.docx", "A 12772-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 36955-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45538</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka
-Svart taggsvamp
-Talltita
-Björksplintborre
-Dropptaggsvamp
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 35012-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Kortskaftad ärgspik
-Vedskivlav
-Vedtrappmossa
-Blodticka
-Flagellkvastmossa
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57411-2025</t>
+          <t>A 47697-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45980.4487037037</v>
+        <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1220,6 +1220,100 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Motaggsvamp
+Fjällig taggsvamp s.str.
+Rödgul trumpetsvamp
+Tjäder
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 57411-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45980.4487037037</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Grön sköldmossa
@@ -1229,87 +1323,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 97-2024</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45293</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -1319,122 +1413,28 @@
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 47697-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Motaggsvamp
-Fjällig taggsvamp s.str.
-Rödgul trumpetsvamp
-Tjäder
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,14 +1628,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4384-2022</t>
+          <t>A 14771-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44589</v>
+        <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,25 +1647,20 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1677,15 +1672,108 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Grönpyrola
+Vanlig groda
+Vanlig padda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14771-2022 artfynd.xlsx", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14771-2022 karta.png", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14771-2022 FSC-klagomål.docx", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14771-2022 FSC-klagomål mail.docx", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14771-2022 tillsynsbegäran.docx", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14771-2022 tillsynsbegäran mail.docx", "A 14771-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 4384-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Dunmossa
@@ -1693,120 +1781,32 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 4384-2022 artfynd.xlsx", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 4384-2022 karta.png", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="U13">
+      <c r="U14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 4384-2022 karta knärot.png", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 4384-2022 FSC-klagomål.docx", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 4384-2022 FSC-klagomål mail.docx", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 4384-2022 tillsynsbegäran.docx", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 4384-2022 tillsynsbegäran mail.docx", "A 4384-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 14771-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola
-Vanlig groda
-Vanlig padda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14771-2022 artfynd.xlsx", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14771-2022 karta.png", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14771-2022 FSC-klagomål.docx", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14771-2022 FSC-klagomål mail.docx", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14771-2022 tillsynsbegäran.docx", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14771-2022 tillsynsbegäran mail.docx", "A 14771-2022")</f>
         <v/>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>45198</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,14 +1900,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49850-2025</t>
+          <t>A 27971-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45940.48542824074</v>
+        <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,23 +1919,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1949,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1958,135 +1953,140 @@
         <v>3</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåmossa
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 49850-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45940.48542824074</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Strutbräken
 Blåsippa
 Mattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 49850-2025 artfynd.xlsx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 49850-2025 karta.png", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 49850-2025 FSC-klagomål.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 49850-2025 FSC-klagomål mail.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 49850-2025 tillsynsbegäran.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 49850-2025 tillsynsbegäran mail.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 27971-2022</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44744</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåmossa
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 36502-2025</t>
+          <t>A 35937-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45869.56332175926</v>
+        <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,610 +2098,610 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 27058-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45471</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Persiljespindling
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 36502-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45869.56332175926</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Svart taggsvamp
 Tjäder</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 27058-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45471</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>3.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Persiljespindling
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 66734-2021</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44520</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 3711-2026</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>46043.48092592593</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>5.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Spillkråka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 16535-2025</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>45751.65542824074</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>1.1</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Tibast
 Blåsippa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 35937-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45148</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 43525-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 66734-2021</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44520</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2887,14 +2887,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,19 +2906,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2946,45 +2941,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44868</v>
+        <v>45933</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,27 +2993,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
@@ -3026,55 +3021,59 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 35155-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44868</v>
+        <v>45145</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,13 +3085,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>14.4</v>
+        <v>4.1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3126,45 +3120,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45933</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3176,28 +3170,23 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3209,56 +3198,60 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 36505-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>45869.57192129629</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3272,14 +3265,14 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3291,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3300,55 +3293,55 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35155-2023</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45145</v>
+        <v>45527</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3360,14 +3353,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3395,45 +3393,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 55044-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44475</v>
+        <v>45967.66005787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3446,10 +3444,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3480,45 +3478,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45527</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3532,27 +3534,27 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -3560,55 +3562,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3621,10 +3623,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3655,53 +3657,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3713,8 +3707,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3723,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3738,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3748,49 +3747,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14092-2023</t>
+          <t>A 16478-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45009</v>
+        <v>45751.57346064815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,19 +3801,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3842,49 +3836,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19793-2024</t>
+          <t>A 26902-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45432</v>
+        <v>45470</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3898,21 +3888,21 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -3926,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3936,45 +3926,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 1946-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>44575</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3987,13 +3977,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4021,45 +4011,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1946-2022</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44575</v>
+        <v>44868</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,8 +4061,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>6.7</v>
+        <v>14.4</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -4106,45 +4101,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16478-2025</t>
+          <t>A 19793-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45751.57346064815</v>
+        <v>45432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,8 +4151,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4191,45 +4191,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 26902-2024</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45470</v>
+        <v>44868</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4247,16 +4247,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4281,31 +4281,31 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
         <v>45783.56921296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45793.48637731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44260</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44263</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44509</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44874</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44462</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44586</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44254</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5113,14 +5113,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3592-2022</t>
+          <t>A 28136-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44586.35570601852</v>
+        <v>44355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,8 +5132,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5170,14 +5175,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28136-2021</t>
+          <t>A 51454-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44355</v>
+        <v>44460</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,13 +5194,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5232,14 +5232,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 51454-2021</t>
+          <t>A 3592-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44460</v>
+        <v>44586.35570601852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>44354</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>44263</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44271</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44810</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5693,14 +5693,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 31429-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44381</v>
+        <v>44774.85231481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5750,14 +5750,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 31429-2022</t>
+          <t>A 51482-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44774.85231481482</v>
+        <v>44460</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5807,14 +5807,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51482-2021</t>
+          <t>A 46688-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44460</v>
+        <v>44445.63403935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5864,14 +5864,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>44586</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5921,14 +5921,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>45771</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5978,14 +5978,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46688-2021</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44445.63403935185</v>
+        <v>45266</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6035,14 +6035,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 58928-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45266</v>
+        <v>44903</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,8 +6054,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6092,14 +6097,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44802</v>
+        <v>44744</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6112,7 +6117,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6149,14 +6154,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44602</v>
+        <v>44744</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6169,7 +6174,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6206,14 +6211,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 16520-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>45751.63434027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,8 +6230,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6263,14 +6273,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44485</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6283,7 +6293,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6320,14 +6330,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16520-2025</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45751.63434027778</v>
+        <v>44445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6339,13 +6349,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6382,14 +6387,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45043</v>
+        <v>45799</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6402,7 +6407,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6439,14 +6444,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28981-2023</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45104</v>
+        <v>45799</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6459,7 +6464,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>12.2</v>
+        <v>7.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6496,14 +6501,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28502-2023</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45103</v>
+        <v>45799</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6516,7 +6521,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6553,14 +6558,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56349-2023</t>
+          <t>A 57010-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45243</v>
+        <v>45628</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6572,8 +6577,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6610,14 +6620,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 56349-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>45243</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6630,7 +6640,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6667,14 +6677,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45145</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6687,7 +6697,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6724,14 +6734,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>45173</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6744,7 +6754,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6781,14 +6791,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 243-2026</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46027.39109953704</v>
+        <v>45317</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6801,7 +6811,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6838,14 +6848,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45267</v>
+        <v>45799</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6858,7 +6868,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>10.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6895,14 +6905,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>44744</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6915,7 +6925,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6952,14 +6962,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>45145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6972,7 +6982,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7009,14 +7019,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 28981-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45226</v>
+        <v>45104</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7028,13 +7038,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>12.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7071,14 +7076,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45317</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7090,8 +7095,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7128,14 +7138,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44455</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7148,7 +7158,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7185,14 +7195,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26909-2024</t>
+          <t>A 16615-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45470</v>
+        <v>45408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7206,11 +7216,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7247,14 +7257,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 29336-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>45824.49658564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7267,7 +7277,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7304,14 +7314,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 29770-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>45825.62880787037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7323,8 +7333,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7361,14 +7376,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7380,8 +7395,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7418,14 +7438,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45154</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7438,7 +7458,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7475,14 +7495,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45293</v>
+        <v>44810</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7495,7 +7515,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7532,14 +7552,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7552,7 +7572,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7589,14 +7609,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>45154</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7609,7 +7629,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7646,14 +7666,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2542-2026</t>
+          <t>A 4443-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46037.46063657408</v>
+        <v>44956.45393518519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7666,7 +7686,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7703,14 +7723,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 47714-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>45198</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7723,7 +7743,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7760,14 +7780,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 31086-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>45832.59052083334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7780,7 +7800,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7817,14 +7837,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 3334-2026</t>
+          <t>A 32044-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46041.78353009259</v>
+        <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7836,8 +7856,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7874,14 +7899,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23367-2024</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45453</v>
+        <v>45240</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7931,14 +7956,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3152-2026</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46041.42630787037</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7951,7 +7976,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7988,14 +8013,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>45933</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8009,11 +8034,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8050,14 +8075,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44724</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8069,8 +8094,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8107,14 +8137,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44977</v>
+        <v>45293</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8127,7 +8157,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8164,14 +8194,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47714-2023</t>
+          <t>A 12907-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45198</v>
+        <v>45385</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8184,7 +8214,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>11.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8221,14 +8251,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 26909-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>45470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8240,8 +8270,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8278,14 +8313,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 28502-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45933</v>
+        <v>45103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8297,13 +8332,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8340,14 +8370,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61735-2025</t>
+          <t>A 9562-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46002.594375</v>
+        <v>45715.61215277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8359,8 +8389,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8397,14 +8432,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>44977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8417,7 +8452,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8454,14 +8489,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>45316</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8474,7 +8509,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8511,14 +8546,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44564</v>
+        <v>45562</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8530,8 +8565,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8568,14 +8608,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62049-2025</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46006.3159837963</v>
+        <v>45043</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8588,7 +8628,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>10.4</v>
+        <v>4.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8625,14 +8665,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45505</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8642,11 +8682,6 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -8687,14 +8722,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45541</v>
+        <v>45243</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8707,7 +8742,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>11.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8744,14 +8779,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45562</v>
+        <v>45505</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8765,11 +8800,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8806,14 +8841,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>44455</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8826,7 +8861,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8863,14 +8898,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44744</v>
+        <v>45965</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8883,7 +8918,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8920,14 +8955,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44744</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8940,7 +8975,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8977,14 +9012,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4443-2023</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44956.45393518519</v>
+        <v>45145</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8997,7 +9032,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9034,14 +9069,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44744</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9054,7 +9089,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9091,14 +9126,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9111,7 +9146,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9148,14 +9183,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 57010-2024</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45628</v>
+        <v>45503</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9167,13 +9202,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9210,14 +9240,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 58140-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45316</v>
+        <v>45250</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9230,7 +9260,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9267,14 +9297,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45965</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9287,7 +9317,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9324,14 +9354,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9344,7 +9374,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9381,14 +9411,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9401,7 +9431,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9438,14 +9468,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44441</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9458,7 +9488,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9495,14 +9525,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>44564</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9515,7 +9545,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9552,14 +9582,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 243-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44571</v>
+        <v>46027.39109953704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9572,7 +9602,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9609,14 +9639,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 32044-2023</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45119</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9628,13 +9658,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9671,14 +9696,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45145</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9691,7 +9716,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9728,14 +9753,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>45197</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9747,13 +9772,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9790,14 +9810,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9810,7 +9830,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9847,14 +9867,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9867,7 +9887,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9904,14 +9924,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45173</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9924,7 +9944,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9961,14 +9981,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44586</v>
+        <v>44802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9981,7 +10001,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10018,14 +10038,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44810</v>
+        <v>44381</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10038,7 +10058,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10075,14 +10095,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12907-2024</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45385</v>
+        <v>45226</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10094,8 +10114,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>11.9</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10132,14 +10157,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 2542-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45243</v>
+        <v>46037.46063657408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10152,7 +10177,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>11.4</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10189,14 +10214,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44844</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10209,7 +10234,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10246,14 +10271,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 3334-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>46041.78353009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10266,7 +10291,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10303,14 +10328,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 3152-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>46041.42630787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10322,13 +10347,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10365,14 +10385,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 9562-2025</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45715.61215277778</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10384,13 +10404,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10427,14 +10442,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45243</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10447,7 +10462,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10484,14 +10499,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 61735-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>46002.594375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10504,7 +10519,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10541,14 +10556,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10561,7 +10576,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10598,14 +10613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 62049-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>46006.3159837963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10618,7 +10633,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>10.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10655,14 +10670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58140-2023</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45250</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10675,7 +10690,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10712,14 +10727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44740</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10732,7 +10747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10769,14 +10784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>45266</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10789,7 +10804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10826,14 +10841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45266</v>
+        <v>45090</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10846,7 +10861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10883,14 +10898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45317</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10903,7 +10918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10940,14 +10955,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44802</v>
+        <v>45293</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10960,7 +10975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10997,14 +11012,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45293</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11017,7 +11032,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11054,14 +11069,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45435</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11073,13 +11088,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11116,14 +11126,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11136,7 +11146,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11173,14 +11183,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11193,7 +11203,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11230,14 +11240,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44802</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11250,7 +11260,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>9.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11287,14 +11297,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44859</v>
+        <v>44673</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11308,11 +11318,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11349,14 +11359,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>44844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11369,7 +11379,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11406,14 +11416,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 51082-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44673</v>
+        <v>45603.46126157408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11425,13 +11435,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11468,14 +11473,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
         <v>45562</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11498,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11530,14 +11535,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44802</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11550,7 +11555,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>10.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11587,14 +11592,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>44859</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11606,8 +11611,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11644,14 +11654,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45240</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11664,7 +11674,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11701,14 +11711,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>44740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11721,7 +11731,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>9.5</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11758,14 +11768,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 58928-2022</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44903</v>
+        <v>45267</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11777,13 +11787,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>9.199999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11820,14 +11825,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>44485</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11845,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>10.8</v>
+        <v>1.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11877,14 +11882,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11896,8 +11901,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11934,14 +11944,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44354</v>
+        <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11953,13 +11963,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11996,14 +12001,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44445</v>
+        <v>44354</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12015,8 +12020,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12053,14 +12063,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44810</v>
+        <v>44571</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12083,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12110,14 +12120,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45503</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12129,8 +12139,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12167,14 +12182,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44873</v>
+        <v>44802</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12186,13 +12201,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12229,14 +12239,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45145</v>
+        <v>45317</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12259,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12286,14 +12296,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45090</v>
+        <v>44724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12316,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12343,14 +12353,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45524</v>
+        <v>44810</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12373,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12400,14 +12410,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12430,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12457,14 +12467,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45197</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12487,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12514,14 +12524,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>44441</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12533,13 +12543,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12576,14 +12581,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45216</v>
+        <v>45435</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12595,8 +12600,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12633,14 +12643,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>44802</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12663,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12690,14 +12700,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16615-2024</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45408</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12715,7 +12725,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12752,14 +12762,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44956</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12772,7 +12782,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>18.4</v>
+        <v>2.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12809,14 +12819,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>45243</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12829,7 +12839,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12866,14 +12876,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45771</v>
+        <v>45216</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12886,7 +12896,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12923,14 +12933,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 51082-2024</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45603.46126157408</v>
+        <v>45524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12943,7 +12953,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12980,14 +12990,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>44956</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13000,7 +13010,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>18.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13037,14 +13047,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13057,7 +13067,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13094,14 +13104,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13114,7 +13124,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13151,14 +13161,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44855</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13171,7 +13181,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13208,14 +13218,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13228,7 +13238,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.1</v>
+        <v>7.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13265,14 +13275,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 51353-2024</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45604.36140046296</v>
+        <v>45541</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13322,14 +13332,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45799</v>
+        <v>45145</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13342,7 +13352,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>10.8</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13379,14 +13389,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 23367-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45799</v>
+        <v>45453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13399,7 +13409,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13436,14 +13446,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 9891-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45799</v>
+        <v>45716.70479166666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13456,7 +13466,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13493,14 +13503,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45799</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13513,7 +13523,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13550,14 +13560,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>44855</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13569,13 +13579,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13612,14 +13617,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 29336-2025</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45824.49658564815</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13632,7 +13637,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13669,14 +13674,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 29770-2025</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45825.62880787037</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13688,13 +13693,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13731,14 +13731,14 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 31086-2025</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45832.59052083334</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45980.4487037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45198</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45471</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45869.56332175926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45184</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44520</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>46043.48092592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45751.65542824074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45720.39356481482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45933</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>45145</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>45610.55574074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>45869.57192129629</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>45527</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45967.66005787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45385.50599537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>45751.57346064815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>45470</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44575</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44868</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>45432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44868</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45783.56921296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45793.48637731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44260</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44263</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44509</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44874</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44462</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44586</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44254</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44460</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44354</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>44263</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44271</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44810</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44460</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44445.63403935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44586</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>45771</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45266</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44903</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44744</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44744</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45751.63434027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45371.91613425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>45799</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>45799</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>45799</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45628</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45243</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45173.74025462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>45173</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45317</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45799</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44744</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45104</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45818.70325231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45902.41623842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>45408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>45824.49658564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45825.62880787037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45177.83136574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44810</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45720.40354166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45154</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44956.45393518519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45198</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>45832.59052083334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45240</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45481.47568287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45933</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>45932.67148148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45293</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45385</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45715.61215277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45316</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45562</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45043</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44936.68457175926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45243</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45505</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44455</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45965</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44934.7921875</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45145</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45971.62462962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45882.65921296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45503</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45250</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45218.73296296296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>46027.34201388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>46027.34767361111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>46027.36018518519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44564</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>46027.39109953704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45298.85216435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>46030.98674768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>45197</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44381.63587962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>46034.59373842592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>46034.60863425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44381</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>45226</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>46037.46063657408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>46037.65710648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>46041.78353009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>46041.42630787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45999.58038194444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45644.41744212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>46002.594375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>46006.30792824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>46006.3159837963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45720.38165509259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45720.39836805555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>45266</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>45090</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>45293.40865740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>45293</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44865.37130787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>45698.40923611111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>46057.66645833333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45726.49932870371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>45617.6762037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44673</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45603.46126157408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45562</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>45603.4181712963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44859</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45524.46203703704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45267</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44485</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45708.6322337963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44354</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44571</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>45708.62876157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44802</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45317</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44810</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44544.76424768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44453.91797453703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44441</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>45435</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44802</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>45708.6225462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45240.30215277777</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>45243</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45216</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44956</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45671.42385416666</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44844.39888888889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44943.60554398148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45541</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45145</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45716.70479166666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44790.60921296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44855</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45419.86915509259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>45428.54665509259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45604.36140046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45980.4487037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45198</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45471</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45869.56332175926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45184</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44520</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>46043.48092592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45751.65542824074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45720.39356481482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45933</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>45145</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>45610.55574074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>45869.57192129629</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>45527</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45967.66005787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45385.50599537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>45751.57346064815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>45470</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44575</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44868</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>45432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44868</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45783.56921296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45793.48637731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44260</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44263</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44509</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44874</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44462</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44586</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44254</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>44460</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44354</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>44263</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44271</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44810</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44460</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44445.63403935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>44586</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>45771</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45266</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44903</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>44744</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44744</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45751.63434027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45371.91613425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>44445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>45799</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>45799</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>45799</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45628</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45243</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>45173.74025462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         <v>45173</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>45317</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45799</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44744</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45104</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>45818.70325231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45902.41623842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>45408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>45824.49658564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45825.62880787037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45177.83136574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44810</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45720.40354166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45154</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44956.45393518519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45198</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>45832.59052083334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45240</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45481.47568287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>45933</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>45932.67148148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45293</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45385</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>45103</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45715.61215277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44977</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45316</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45562</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45043</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>44936.68457175926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>45243</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45505</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44455</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45965</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44934.7921875</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45145</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45971.62462962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45882.65921296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45503</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45250</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45218.73296296296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>46027.34201388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>46027.34767361111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>46027.36018518519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44564</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>46027.39109953704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45298.85216435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>46030.98674768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>45197</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44381.63587962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>46034.59373842592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>46034.60863425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44802</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44381</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>45226</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>46037.46063657408</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>46037.65710648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>46041.78353009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>46041.42630787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45999.58038194444</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45644.41744212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>46002.594375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>46006.30792824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>46006.3159837963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45720.38165509259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45720.39836805555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>45266</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>45090</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>45293.40865740741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>45293</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44865.37130787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>45698.40923611111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>46057.66645833333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45726.49932870371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>45617.6762037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44673</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45603.46126157408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45562</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>45603.4181712963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44859</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45524.46203703704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45267</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44485</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45708.6322337963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44602</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44354</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44571</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>45708.62876157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44802</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45317</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44810</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44544.76424768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44453.91797453703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44441</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>45435</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44802</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>45708.6225462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45240.30215277777</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>45243</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45216</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44956</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45671.42385416666</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44844.39888888889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44943.60554398148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45541</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45145</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45716.70479166666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44790.60921296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>44855</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45419.86915509259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>45428.54665509259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45604.36140046296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z205"/>
+  <dimension ref="A1:Z204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 36955-2024</t>
+          <t>A 35012-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45538</v>
+        <v>45527</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,20 +900,25 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -925,15 +930,106 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>7</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik
+Vedskivlav
+Vedtrappmossa
+Blodticka
+Flagellkvastmossa
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 36955-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45538</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -944,132 +1040,36 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 35012-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Kortskaftad ärgspik
-Vedskivlav
-Vedtrappmossa
-Blodticka
-Flagellkvastmossa
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
         <v/>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,14 +1167,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 47697-2023</t>
+          <t>A 97-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45198</v>
+        <v>45293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1220,6 +1220,96 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Dvärgpipistrell
+Större brunfladdermus
+Trollpipistrell
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 47697-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Motaggsvamp
@@ -1229,91 +1319,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 57411-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45980.4487037037</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>3.5</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Grön sköldmossa
@@ -1323,118 +1413,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 97-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45293</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Dvärgpipistrell
-Större brunfladdermus
-Trollpipistrell
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 47711-2023</t>
+          <t>A 27971-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45198</v>
+        <v>44744</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,16 +1833,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1866,227 +1866,227 @@
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåmossa
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 49850-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45940.48542824074</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken
+Blåsippa
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 49850-2025 artfynd.xlsx", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 49850-2025 karta.png", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 49850-2025 FSC-klagomål.docx", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 49850-2025 FSC-klagomål mail.docx", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 49850-2025 tillsynsbegäran.docx", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 49850-2025 tillsynsbegäran mail.docx", "A 49850-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 47711-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Jättesvampmal
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 27971-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44744</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåmossa
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 49850-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45940.48542824074</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken
-Blåsippa
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 49850-2025 artfynd.xlsx", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 49850-2025 karta.png", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 49850-2025 FSC-klagomål.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 49850-2025 FSC-klagomål mail.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 49850-2025 tillsynsbegäran.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 49850-2025 tillsynsbegäran mail.docx", "A 49850-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35937-2023</t>
+          <t>A 27058-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45148</v>
+        <v>45471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,610 +2098,610 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Persiljespindling
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 36502-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45869.56332175926</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 3711-2026</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>46043.48092592593</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 16535-2025</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45751.65542824074</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Tibast
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 35937-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45148</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Ask</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 27058-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45471</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>3.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Persiljespindling
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 36502-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45869.56332175926</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Svart taggsvamp
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 43525-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Slåtterfibbla
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 66734-2021</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44520</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>1.2</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Skarp dropptaggsvamp
 Svavelriska</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 3711-2026</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>46043.48092592593</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 16535-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45751.65542824074</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Tibast
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2887,14 +2887,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>44868</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,14 +2906,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>14.4</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2941,45 +2946,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45933</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2993,11 +2998,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3031,35 +3036,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
-        <v/>
-      </c>
-      <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
@@ -3073,7 +3074,7 @@
         <v>45145</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3151,14 +3152,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>44475</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,10 +3172,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3205,53 +3206,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>45527</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3269,13 +3262,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3303,45 +3296,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 36505-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45527</v>
+        <v>45869.57192129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,13 +3352,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3393,45 +3386,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>45933</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3443,23 +3436,28 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3471,56 +3469,56 @@
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>44868</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3538,13 +3536,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3553,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3562,55 +3560,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 55044-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44475</v>
+        <v>45967.66005787037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,10 +3621,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3657,45 +3655,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14092-2023</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45009</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,13 +3709,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3722,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3737,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3747,49 +3744,53 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="U36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16478-2025</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45751.57346064815</v>
+        <v>45009</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3801,14 +3802,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3836,45 +3842,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26902-2024</t>
+          <t>A 19793-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45470</v>
+        <v>45432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3888,20 +3898,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3916,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3926,45 +3936,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 1946-2022</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44575</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3977,13 +3987,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4011,45 +4021,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 1946-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44868</v>
+        <v>44575</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,13 +4071,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>14.4</v>
+        <v>6.7</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -4101,45 +4106,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19793-2024</t>
+          <t>A 16478-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45432</v>
+        <v>45751.57346064815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,13 +4156,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4191,45 +4191,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 26902-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44868</v>
+        <v>45470</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4247,17 +4247,17 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4281,31 +4281,31 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
         <v>45783.56921296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45793.48637731482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44260</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44263</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44509</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44874</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44462</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44586</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44254</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5113,14 +5113,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28136-2021</t>
+          <t>A 3592-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44355</v>
+        <v>44586.35570601852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5132,13 +5132,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5175,14 +5170,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51454-2021</t>
+          <t>A 28136-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44460</v>
+        <v>44355</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5194,8 +5189,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5232,14 +5232,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3592-2022</t>
+          <t>A 51454-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44586.35570601852</v>
+        <v>44460</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>44354</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>44263</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44271</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44810</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44460</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5807,14 +5807,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46688-2021</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44445.63403935185</v>
+        <v>45043</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5864,14 +5864,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44586</v>
+        <v>45266</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5921,14 +5921,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45771</v>
+        <v>44802</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5978,14 +5978,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 28502-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45266</v>
+        <v>45103</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6035,14 +6035,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58928-2022</t>
+          <t>A 56349-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44903</v>
+        <v>45243</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6054,13 +6054,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>9.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6097,14 +6092,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44744</v>
+        <v>45145</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6117,7 +6112,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6154,14 +6149,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44744</v>
+        <v>45267</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6174,7 +6169,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6211,14 +6206,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16520-2025</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45751.63434027778</v>
+        <v>45226</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6236,7 +6231,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6273,14 +6268,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>45317</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6330,14 +6325,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 26909-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44445</v>
+        <v>45470</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6349,8 +6344,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6387,14 +6387,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45799</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6444,14 +6444,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45799</v>
+        <v>45154</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.9</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6501,14 +6501,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45799</v>
+        <v>45293</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6558,14 +6558,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57010-2024</t>
+          <t>A 23367-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45628</v>
+        <v>45453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6577,13 +6577,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6620,14 +6615,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56349-2023</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45243</v>
+        <v>44977</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6640,7 +6635,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6677,14 +6672,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 47714-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>45198</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6697,7 +6692,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6734,14 +6729,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45173</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6754,7 +6749,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6791,14 +6786,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45317</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6811,7 +6806,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6848,14 +6843,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45799</v>
+        <v>44564</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6868,7 +6863,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10.8</v>
+        <v>3.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6905,14 +6900,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44744</v>
+        <v>45505</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6924,8 +6919,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6962,14 +6962,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 29336-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45145</v>
+        <v>45824.49658564815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7019,14 +7019,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28981-2023</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45104</v>
+        <v>45541</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>12.2</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7076,14 +7076,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>45562</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7097,11 +7097,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7138,14 +7138,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 29770-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>45825.62880787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7157,8 +7157,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7195,14 +7200,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 16615-2024</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45408</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7214,13 +7219,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7257,14 +7257,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 29336-2025</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45824.49658564815</v>
+        <v>44744</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7314,14 +7314,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29770-2025</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45825.62880787037</v>
+        <v>44744</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7333,13 +7333,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7376,14 +7371,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 31086-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44873</v>
+        <v>45832.59052083334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7395,13 +7390,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7438,14 +7428,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 4443-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>44956.45393518519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7458,7 +7448,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7495,14 +7485,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44810</v>
+        <v>44744</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7515,7 +7505,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7552,14 +7542,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>45316</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7572,7 +7562,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7609,14 +7599,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45154</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7629,7 +7619,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7666,14 +7656,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4443-2023</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44956.45393518519</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7686,7 +7676,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7723,14 +7713,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47714-2023</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45198</v>
+        <v>44441</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7743,7 +7733,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7780,14 +7770,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 31086-2025</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45832.59052083334</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7800,7 +7790,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7837,14 +7827,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32044-2023</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45119</v>
+        <v>44571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7856,13 +7846,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7899,14 +7884,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 32044-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45240</v>
+        <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7918,8 +7903,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7956,14 +7946,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>45145</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7976,7 +7966,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8013,14 +8003,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45933</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8034,11 +8024,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8075,14 +8065,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8094,13 +8084,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8137,14 +8122,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45293</v>
+        <v>44810</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8142,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8194,14 +8179,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12907-2024</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45385</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8199,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>11.9</v>
+        <v>6.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8251,14 +8236,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26909-2024</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45470</v>
+        <v>45243</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8270,13 +8255,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>11.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8313,14 +8293,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28502-2023</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45103</v>
+        <v>44844</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8333,7 +8313,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8370,14 +8350,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 9562-2025</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45715.61215277778</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8389,13 +8369,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8432,14 +8407,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44977</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8451,8 +8426,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8489,14 +8469,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45316</v>
+        <v>44381</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8509,7 +8489,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8546,14 +8526,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45562</v>
+        <v>45933</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8571,7 +8551,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8608,14 +8588,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45043</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8628,7 +8608,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8665,14 +8645,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 46688-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>44445.63403935185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8685,7 +8665,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8722,14 +8702,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45243</v>
+        <v>44602</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8742,7 +8722,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>11.4</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8779,14 +8759,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45505</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8798,13 +8778,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8841,14 +8816,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44455</v>
+        <v>44485</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8861,7 +8836,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8898,14 +8873,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 16520-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45965</v>
+        <v>45751.63434027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8917,8 +8892,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8955,14 +8935,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 28981-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>45104</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8975,7 +8955,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.5</v>
+        <v>12.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9012,14 +8992,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45145</v>
+        <v>44455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9032,7 +9012,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9069,14 +9049,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9089,7 +9069,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9126,14 +9106,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>44724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9146,7 +9126,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9183,14 +9163,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45503</v>
+        <v>45965</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9203,7 +9183,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9240,14 +9220,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58140-2023</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45250</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9260,7 +9240,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9297,14 +9277,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9317,7 +9297,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9354,14 +9334,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>45173</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9374,7 +9354,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9411,14 +9391,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>44586</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9431,7 +9411,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9468,14 +9448,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 12907-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>45385</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9488,7 +9468,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>11.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9525,14 +9505,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44564</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9545,7 +9525,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9589,7 +9569,7 @@
         <v>46027.39109953704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9639,14 +9619,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9659,7 +9639,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9696,14 +9676,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9716,7 +9696,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9753,14 +9733,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45197</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9773,7 +9753,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9810,14 +9790,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9830,7 +9810,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9867,14 +9847,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9887,7 +9867,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9924,14 +9904,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9944,7 +9924,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9981,14 +9961,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 2542-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44802</v>
+        <v>46037.46063657408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10001,7 +9981,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10038,14 +10018,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44381</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10057,8 +10037,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10095,14 +10080,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 9562-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45226</v>
+        <v>45715.61215277778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10105,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10157,14 +10142,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2542-2026</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46037.46063657408</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10162,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10214,14 +10199,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 3334-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>46041.78353009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10219,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10271,14 +10256,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3334-2026</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46041.78353009259</v>
+        <v>45243</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10276,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10335,7 +10320,7 @@
         <v>46041.42630787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10385,14 +10370,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10390,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10442,14 +10427,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 61735-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>46002.594375</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10447,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10499,14 +10484,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61735-2025</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46002.594375</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10504,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10556,14 +10541,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10561,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10613,14 +10598,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62049-2025</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46006.3159837963</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10618,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>10.4</v>
+        <v>2.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10670,14 +10655,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 62049-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>46006.3159837963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10675,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.8</v>
+        <v>10.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10727,14 +10712,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 58140-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>45250</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10732,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10784,14 +10769,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45266</v>
+        <v>44740</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10789,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10841,14 +10826,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45090</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10846,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10898,14 +10883,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>45266</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10903,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10955,14 +10940,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45293</v>
+        <v>45317</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10960,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11012,14 +10997,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>44802</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11017,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11069,14 +11054,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>45293</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11074,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11126,14 +11111,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>45435</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11145,8 +11130,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11183,14 +11173,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11193,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11240,14 +11230,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11250,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>9.5</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11297,14 +11287,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44673</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11316,13 +11306,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11359,14 +11344,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44844</v>
+        <v>44802</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11364,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11416,14 +11401,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 51082-2024</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45603.46126157408</v>
+        <v>44859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11435,8 +11420,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11473,14 +11463,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45562</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11492,13 +11482,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11535,14 +11520,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>44673</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11554,8 +11539,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>10.8</v>
+        <v>2.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11592,14 +11582,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44859</v>
+        <v>45562</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11613,11 +11603,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11654,14 +11644,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>44802</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11674,7 +11664,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>9.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11711,14 +11701,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44740</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11731,7 +11721,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11768,14 +11758,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45267</v>
+        <v>45240</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11788,7 +11778,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11825,14 +11815,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44485</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11845,7 +11835,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>9.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11882,14 +11872,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 58928-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>44903</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11903,11 +11893,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11944,14 +11934,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44602</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11964,7 +11954,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>10.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12001,14 +11991,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44354</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12020,13 +12010,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>7.9</v>
+        <v>0.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12063,14 +12048,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44571</v>
+        <v>44354</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12082,8 +12067,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.4</v>
+        <v>7.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12120,14 +12110,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>44445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12139,13 +12129,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>3.7</v>
+        <v>8.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12182,14 +12167,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44802</v>
+        <v>44810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12202,7 +12187,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12239,14 +12224,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45317</v>
+        <v>45503</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12259,7 +12244,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12296,14 +12281,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44724</v>
+        <v>44873</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12315,8 +12300,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12353,14 +12343,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44810</v>
+        <v>45145</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12373,7 +12363,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12410,14 +12400,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>45090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12430,7 +12420,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12467,14 +12457,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>45524</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12487,7 +12477,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12524,14 +12514,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44441</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12544,7 +12534,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12581,14 +12571,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45435</v>
+        <v>45197</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12600,13 +12590,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12643,14 +12628,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44802</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12662,8 +12647,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12700,14 +12690,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>45216</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12719,13 +12709,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12762,14 +12747,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12782,7 +12767,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12819,14 +12804,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 16615-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45243</v>
+        <v>45408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12838,8 +12823,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12876,14 +12866,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45216</v>
+        <v>44956</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12896,7 +12886,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>18.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12933,14 +12923,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45524</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12953,7 +12943,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12990,14 +12980,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44956</v>
+        <v>45771</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13010,7 +13000,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>18.4</v>
+        <v>8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13047,14 +13037,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 51082-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>45603.46126157408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13067,7 +13057,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13104,14 +13094,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 9891-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>45716.70479166666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13124,7 +13114,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13161,14 +13151,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13181,7 +13171,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13218,14 +13208,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44802</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13238,7 +13228,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.3</v>
+        <v>1.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13275,14 +13265,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45541</v>
+        <v>44855</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13295,7 +13285,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13332,14 +13322,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45145</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13352,7 +13342,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13389,14 +13379,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23367-2024</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45453</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13409,7 +13399,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13446,14 +13436,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>45799</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13466,7 +13456,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>10.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13503,14 +13493,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>45799</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13523,7 +13513,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.9</v>
+        <v>7.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13560,14 +13550,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44855</v>
+        <v>45799</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13580,7 +13570,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13617,14 +13607,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>45799</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13637,7 +13627,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13671,17 +13661,17 @@
       </c>
       <c r="R203" s="2" t="inlineStr"/>
     </row>
-    <row r="204" ht="15" customHeight="1">
+    <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13693,8 +13683,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13727,63 +13722,6 @@
         <v>0</v>
       </c>
       <c r="R204" s="2" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>A 51353-2024</t>
-        </is>
-      </c>
-      <c r="B205" s="1" t="n">
-        <v>45604.36140046296</v>
-      </c>
-      <c r="C205" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0</v>
-      </c>
-      <c r="L205" t="n">
-        <v>0</v>
-      </c>
-      <c r="M205" t="n">
-        <v>0</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0</v>
-      </c>
-      <c r="P205" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q205" t="n">
-        <v>0</v>
-      </c>
-      <c r="R205" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 35012-2024</t>
+          <t>A 12772-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45527</v>
+        <v>44270</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,23 +900,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>31.5</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -930,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -939,6 +934,201 @@
         <v>7</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Skogshare
+Gulvaxing
+Mönjevaxing
+Sprödvaxing
+Toppvaxing
+Vit vaxskivling
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12772-2021 artfynd.xlsx", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12772-2021 karta.png", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12772-2021 FSC-klagomål.docx", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12772-2021 FSC-klagomål mail.docx", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12772-2021 tillsynsbegäran.docx", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12772-2021 tillsynsbegäran mail.docx", "A 12772-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 36955-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45538</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka
+Svart taggsvamp
+Talltita
+Björksplintborre
+Dropptaggsvamp
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 35012-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Kortskaftad ärgspik
 Vedskivlav
@@ -949,232 +1139,42 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 36955-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45538</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka
-Svart taggsvamp
-Talltita
-Björksplintborre
-Dropptaggsvamp
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 12772-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44270</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogshare
-Gulvaxing
-Mönjevaxing
-Sprödvaxing
-Toppvaxing
-Vit vaxskivling
-Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12772-2021 artfynd.xlsx", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12772-2021 karta.png", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12772-2021 FSC-klagomål.docx", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12772-2021 FSC-klagomål mail.docx", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12772-2021 tillsynsbegäran.docx", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12772-2021 tillsynsbegäran mail.docx", "A 12772-2021")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 97-2024</t>
+          <t>A 47697-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45293</v>
+        <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1220,6 +1220,190 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Motaggsvamp
+Fjällig taggsvamp s.str.
+Rödgul trumpetsvamp
+Tjäder
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 57411-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45980.4487037037</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ullticka
+Grön sköldmossa
+Grönpyrola
+Jättesvampmal
+Trådticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 97-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -1229,212 +1413,28 @@
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 47697-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Motaggsvamp
-Fjällig taggsvamp s.str.
-Rödgul trumpetsvamp
-Tjäder
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 57411-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45980.4487037037</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Grön sköldmossa
-Grönpyrola
-Jättesvampmal
-Trådticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44744</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,14 +1900,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49850-2025</t>
+          <t>A 47711-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45940.48542824074</v>
+        <v>45198</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1919,19 +1919,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1958,135 +1953,140 @@
         <v>3</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Jättesvampmal
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 49850-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45940.48542824074</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Strutbräken
 Blåsippa
 Mattlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 49850-2025 artfynd.xlsx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 49850-2025 karta.png", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 49850-2025 FSC-klagomål.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 49850-2025 FSC-klagomål mail.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 49850-2025 tillsynsbegäran.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 49850-2025 tillsynsbegäran mail.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 47711-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Jättesvampmal
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 27058-2024</t>
+          <t>A 35937-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45471</v>
+        <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,610 +2098,610 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 27058-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45471</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Persiljespindling
 Gröngöling</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 36502-2025</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45869.56332175926</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>3.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Svart taggsvamp
 Tjäder</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 66734-2021</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44520</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 3711-2026</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>46043.48092592593</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>5.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Spillkråka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 16535-2025</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>45751.65542824074</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>1.1</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Tibast
 Blåsippa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 35937-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45148</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 43525-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 66734-2021</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44520</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>44868</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2912,13 +2912,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>14.4</v>
+        <v>8.4</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S27">
@@ -2977,14 +2977,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 21726-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>45783.56921296296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,13 +2996,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3011,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3029,52 +3024,52 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35155-2023</t>
+          <t>A 23772-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45145</v>
+        <v>45793.48637731482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3087,7 +3082,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3096,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3111,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3121,45 +3116,49 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44475</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3172,16 +3171,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3196,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3206,45 +3205,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45527</v>
+        <v>45933</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,27 +3257,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
@@ -3286,55 +3285,59 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 35155-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>45145</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,13 +3349,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3390,41 +3388,41 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45933</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3436,28 +3434,23 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3469,56 +3462,60 @@
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 36505-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44868</v>
+        <v>45869.57192129629</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3532,17 +3529,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8.4</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3570,45 +3567,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>45527</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3620,17 +3617,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3655,49 +3657,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,23 +3707,28 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3737,60 +3740,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14092-2023</t>
+          <t>A 55044-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45009</v>
+        <v>45967.66005787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,13 +3797,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3817,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3832,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3842,49 +3832,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19793-2024</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45432</v>
+        <v>44475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3896,23 +3886,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -3926,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3936,45 +3921,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>45009</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3986,14 +3971,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4021,45 +4011,49 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <v/>
+      </c>
+      <c r="Z39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1946-2022</t>
+          <t>A 16478-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44575</v>
+        <v>45751.57346064815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4072,13 +4066,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4106,45 +4100,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16478-2025</t>
+          <t>A 26902-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45751.57346064815</v>
+        <v>45470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,18 +4150,23 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4191,45 +4190,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 26902-2024</t>
+          <t>A 1946-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45470</v>
+        <v>44575</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,22 +4240,17 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>6.7</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -4271,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4281,45 +4275,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21726-2025</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45783.56921296296</v>
+        <v>44868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4331,17 +4325,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>14.4</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4356,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4366,45 +4365,45 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 23772-2025</t>
+          <t>A 19793-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45793.48637731482</v>
+        <v>45432</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,17 +4415,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4441,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4451,35 +4455,31 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
-        <v/>
-      </c>
-      <c r="Z44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
         <v>44260</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44263</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44509</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44874</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4885,14 +4885,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52214-2021</t>
+          <t>A 14664-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44462</v>
+        <v>44280</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4942,14 +4942,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14664-2021</t>
+          <t>A 52214-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44280</v>
+        <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>44586</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44254</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44355</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44460</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44354</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>44263</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44271</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44810</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44460</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5807,14 +5807,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 46688-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45043</v>
+        <v>44445.63403935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5864,14 +5864,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45266</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5921,14 +5921,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44802</v>
+        <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>7.3</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5978,14 +5978,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28502-2023</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45103</v>
+        <v>45771</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6035,14 +6035,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56349-2023</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45243</v>
+        <v>44802</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>7.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6092,14 +6092,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 58928-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45145</v>
+        <v>44903</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,8 +6111,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6149,14 +6154,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45267</v>
+        <v>45541</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6169,7 +6174,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6206,14 +6211,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45226</v>
+        <v>45266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6225,13 +6230,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6268,14 +6268,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45317</v>
+        <v>45145</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6325,14 +6325,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26909-2024</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45470</v>
+        <v>44744</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6344,13 +6344,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6387,14 +6382,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>44744</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6407,7 +6402,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6444,14 +6439,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45154</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6464,7 +6459,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6501,14 +6496,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 16520-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45293</v>
+        <v>45751.63434027778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6520,8 +6515,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>45453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6615,14 +6615,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 9891-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44977</v>
+        <v>45716.70479166666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6672,14 +6672,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47714-2023</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45198</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6729,14 +6729,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>44855</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6786,14 +6786,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6843,14 +6843,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44564</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6900,14 +6900,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45505</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6917,11 +6917,6 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -6962,14 +6957,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29336-2025</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45824.49658564815</v>
+        <v>44445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6982,7 +6977,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>8.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7019,14 +7014,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 56349-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45541</v>
+        <v>45243</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7039,7 +7034,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7076,14 +7071,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45562</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7095,13 +7090,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7138,14 +7128,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29770-2025</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45825.62880787037</v>
+        <v>45173</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7157,13 +7147,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7200,14 +7185,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>45317</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7220,7 +7205,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7257,14 +7242,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>44744</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7277,7 +7262,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7314,14 +7299,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44744</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7334,7 +7319,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7371,14 +7356,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31086-2025</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45832.59052083334</v>
+        <v>45145</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7391,7 +7376,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7428,14 +7413,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4443-2023</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44956.45393518519</v>
+        <v>45799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7448,7 +7433,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7485,14 +7470,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44744</v>
+        <v>45799</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7505,7 +7490,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7542,14 +7527,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45316</v>
+        <v>45799</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7562,7 +7547,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7599,14 +7584,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>45799</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7619,7 +7604,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>10.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7656,14 +7641,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 28981-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>45104</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7676,7 +7661,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>12.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7713,14 +7698,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 16615-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44441</v>
+        <v>45408</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7732,8 +7717,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7770,14 +7760,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7789,8 +7779,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7827,14 +7822,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44571</v>
+        <v>44873</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7846,8 +7841,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7884,14 +7884,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32044-2023</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45119</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7903,13 +7903,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7946,14 +7941,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 29336-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45145</v>
+        <v>45824.49658564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7966,7 +7961,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8003,14 +7998,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>44810</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8022,13 +8017,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8065,14 +8055,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 29770-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>45825.62880787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8084,8 +8074,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8122,14 +8117,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44810</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8142,7 +8137,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8179,14 +8174,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>45154</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8199,7 +8194,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8236,14 +8231,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 4443-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45243</v>
+        <v>44956.45393518519</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8256,7 +8251,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.4</v>
+        <v>5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8293,14 +8288,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 47714-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44844</v>
+        <v>45198</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8313,7 +8308,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8350,14 +8345,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 31086-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>45832.59052083334</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8370,7 +8365,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8407,14 +8402,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>45933</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8428,11 +8423,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8469,14 +8464,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44381</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8488,8 +8483,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8526,14 +8526,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 32044-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45933</v>
+        <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8547,11 +8547,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8588,14 +8588,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>45240</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>9.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8645,14 +8645,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46688-2021</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44445.63403935185</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8702,14 +8702,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44602</v>
+        <v>45293</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8759,14 +8759,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 12907-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>45385</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.3</v>
+        <v>11.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8816,14 +8816,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 26909-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44485</v>
+        <v>45470</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8835,8 +8835,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8873,14 +8878,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16520-2025</t>
+          <t>A 28502-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45751.63434027778</v>
+        <v>45103</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8892,13 +8897,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8935,14 +8935,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28981-2023</t>
+          <t>A 9562-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45104</v>
+        <v>45715.61215277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8954,8 +8954,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>12.2</v>
+        <v>4.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8992,14 +8997,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44455</v>
+        <v>44977</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9012,7 +9017,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9049,14 +9054,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>45316</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9069,7 +9074,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9106,14 +9111,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44724</v>
+        <v>45562</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9125,8 +9130,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9163,14 +9173,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45965</v>
+        <v>45043</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9183,7 +9193,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9220,14 +9230,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9240,7 +9250,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9277,14 +9287,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>45243</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9297,7 +9307,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>11.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9334,14 +9344,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45173</v>
+        <v>45505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9353,8 +9363,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9391,14 +9406,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44586</v>
+        <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9411,7 +9426,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9448,14 +9463,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12907-2024</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45385</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9468,7 +9483,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>11.9</v>
+        <v>6.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9505,14 +9520,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9525,7 +9540,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9562,14 +9577,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 243-2026</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46027.39109953704</v>
+        <v>45145</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9582,7 +9597,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9619,14 +9634,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>45965</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9639,7 +9654,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9676,14 +9691,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>45503</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9696,7 +9711,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9733,14 +9748,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 58140-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>45250</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9753,7 +9768,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9790,14 +9805,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9810,7 +9825,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9847,14 +9862,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9867,7 +9882,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9904,14 +9919,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>44564</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9924,7 +9939,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9961,14 +9976,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 2542-2026</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46037.46063657408</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9981,7 +9996,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10018,14 +10033,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10037,13 +10052,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10080,14 +10090,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 9562-2025</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45715.61215277778</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10099,13 +10109,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10142,14 +10147,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10162,7 +10167,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10199,14 +10204,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 3334-2026</t>
+          <t>A 243-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46041.78353009259</v>
+        <v>46027.39109953704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10219,7 +10224,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10256,14 +10261,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45243</v>
+        <v>45197</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10276,7 +10281,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10313,14 +10318,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3152-2026</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46041.42630787037</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10333,7 +10338,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10370,14 +10375,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10427,14 +10432,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61735-2025</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46002.594375</v>
+        <v>44802</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10447,7 +10452,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10484,14 +10489,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>44381</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10504,7 +10509,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10541,14 +10546,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>45226</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10560,8 +10565,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10598,14 +10608,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10618,7 +10628,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10655,14 +10665,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 62049-2025</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46006.3159837963</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10675,7 +10685,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>10.4</v>
+        <v>6.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10712,14 +10722,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58140-2023</t>
+          <t>A 2542-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45250</v>
+        <v>46037.46063657408</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10732,7 +10742,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10769,14 +10779,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44740</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10789,7 +10799,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10826,14 +10836,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 3334-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>46041.78353009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10846,7 +10856,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10883,14 +10893,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 3152-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45266</v>
+        <v>46041.42630787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10903,7 +10913,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10940,14 +10950,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45317</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10960,7 +10970,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10997,14 +11007,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44802</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11017,7 +11027,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11054,14 +11064,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 61735-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45293</v>
+        <v>46002.594375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11111,14 +11121,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45435</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11130,13 +11140,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11173,14 +11178,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11193,7 +11198,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11230,14 +11235,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>45266</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11250,7 +11255,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11287,14 +11292,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>45090</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11307,7 +11312,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11344,14 +11349,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44802</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11364,7 +11369,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11401,14 +11406,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 62049-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44859</v>
+        <v>46006.3159837963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11420,13 +11425,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>10.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11463,14 +11463,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11520,14 +11520,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44673</v>
+        <v>45293</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11539,13 +11539,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11582,14 +11577,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45562</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11601,13 +11596,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11644,14 +11634,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44802</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11664,7 +11654,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11701,14 +11691,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11721,7 +11711,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11758,14 +11748,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45240</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11778,7 +11768,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11815,14 +11805,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>44673</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11834,8 +11824,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>9.5</v>
+        <v>2.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11872,14 +11867,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 58928-2022</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44903</v>
+        <v>44844</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11891,13 +11886,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>9.199999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11934,14 +11924,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 51082-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>45603.46126157408</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11944,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>10.8</v>
+        <v>4.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11991,14 +11981,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12011,7 +12001,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12048,14 +12038,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44354</v>
+        <v>45562</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12069,11 +12059,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>7.9</v>
+        <v>4.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12110,14 +12100,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44445</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12130,7 +12120,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>8.1</v>
+        <v>10.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12167,14 +12157,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44810</v>
+        <v>44859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12186,8 +12176,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12224,14 +12219,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45503</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12244,7 +12239,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12281,14 +12276,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44873</v>
+        <v>44740</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12300,13 +12295,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12343,14 +12333,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45145</v>
+        <v>45267</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12353,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12400,14 +12390,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45090</v>
+        <v>44485</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12410,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12457,14 +12447,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45524</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12476,8 +12466,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12514,14 +12509,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>44602</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12529,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12571,14 +12566,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45197</v>
+        <v>44354</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12590,8 +12585,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12628,14 +12628,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>44571</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12647,13 +12647,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12690,14 +12685,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45216</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12709,8 +12704,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12747,14 +12747,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>44802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.5</v>
+        <v>0.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12804,14 +12804,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 16615-2024</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45408</v>
+        <v>45317</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12823,13 +12823,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12866,14 +12861,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44956</v>
+        <v>44724</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12886,7 +12881,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>18.4</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12923,14 +12918,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>44810</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12943,7 +12938,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12980,14 +12975,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45771</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13000,7 +12995,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13037,14 +13032,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 51082-2024</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45603.46126157408</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13057,7 +13052,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13094,14 +13089,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>44441</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13114,7 +13109,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13151,14 +13146,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>45435</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13170,8 +13165,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13208,14 +13208,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13265,14 +13265,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44855</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13284,8 +13284,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13322,14 +13327,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13342,7 +13347,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13379,14 +13384,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 51353-2024</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45604.36140046296</v>
+        <v>45243</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13399,7 +13404,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13436,14 +13441,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45799</v>
+        <v>45216</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13456,7 +13461,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13493,14 +13498,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45799</v>
+        <v>45524</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13513,7 +13518,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>7.9</v>
+        <v>3.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13550,14 +13555,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45799</v>
+        <v>44956</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13570,7 +13575,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>6.9</v>
+        <v>18.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13607,14 +13612,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45799</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13632,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13664,14 +13669,14 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13683,13 +13688,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44270</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,14 +972,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 36955-2024</t>
+          <t>A 35012-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45538</v>
+        <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -991,20 +991,25 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1016,15 +1021,106 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>7</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik
+Vedskivlav
+Vedtrappmossa
+Blodticka
+Flagellkvastmossa
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 36955-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45538</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -1035,146 +1131,50 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 35012-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Kortskaftad ärgspik
-Vedskivlav
-Vedtrappmossa
-Blodticka
-Flagellkvastmossa
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 47697-2023</t>
+          <t>A 97-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45198</v>
+        <v>45293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1220,6 +1220,96 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Dvärgpipistrell
+Större brunfladdermus
+Trollpipistrell
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 47697-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Motaggsvamp
@@ -1229,91 +1319,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 57411-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45980.4487037037</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>3.5</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Grön sköldmossa
@@ -1323,118 +1413,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 97-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45293</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Dvärgpipistrell
-Större brunfladdermus
-Trollpipistrell
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,14 +1628,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 14771-2022</t>
+          <t>A 4384-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44656</v>
+        <v>44589</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,21 +1647,26 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1672,15 +1677,107 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Bombmurkla
+Dunmossa
+Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 4384-2022 artfynd.xlsx", "A 4384-2022")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 4384-2022 karta.png", "A 4384-2022")</f>
+        <v/>
+      </c>
+      <c r="U13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 4384-2022 karta knärot.png", "A 4384-2022")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 4384-2022 FSC-klagomål.docx", "A 4384-2022")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 4384-2022 FSC-klagomål mail.docx", "A 4384-2022")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 4384-2022 tillsynsbegäran.docx", "A 4384-2022")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 4384-2022 tillsynsbegäran mail.docx", "A 4384-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 14771-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44656</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Grönpyrola
 Vanlig groda
@@ -1688,125 +1785,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14771-2022 artfynd.xlsx", "A 14771-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14771-2022 karta.png", "A 14771-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14771-2022 FSC-klagomål.docx", "A 14771-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14771-2022 FSC-klagomål mail.docx", "A 14771-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14771-2022 tillsynsbegäran.docx", "A 14771-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14771-2022 tillsynsbegäran mail.docx", "A 14771-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 4384-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44589</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Bombmurkla
-Dunmossa
-Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 4384-2022 artfynd.xlsx", "A 4384-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 4384-2022 karta.png", "A 4384-2022")</f>
-        <v/>
-      </c>
-      <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 4384-2022 karta knärot.png", "A 4384-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 4384-2022 FSC-klagomål.docx", "A 4384-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 4384-2022 FSC-klagomål mail.docx", "A 4384-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 4384-2022 tillsynsbegäran.docx", "A 4384-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 4384-2022 tillsynsbegäran mail.docx", "A 4384-2022")</f>
         <v/>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>44744</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45198</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35937-2023</t>
+          <t>A 27058-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45148</v>
+        <v>45471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,610 +2098,610 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Persiljespindling
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 36502-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45869.56332175926</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 16535-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45751.65542824074</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Tibast
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 35937-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45148</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Ask</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 27058-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45471</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>3.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Persiljespindling
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 36502-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45869.56332175926</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Svart taggsvamp
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 43525-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Slåtterfibbla
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 66734-2021</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44520</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>1.2</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Skarp dropptaggsvamp
 Svavelriska</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 3711-2026</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>46043.48092592593</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>5.3</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Spillkråka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 16535-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45751.65542824074</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Tibast
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>44868</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2912,13 +2912,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.4</v>
+        <v>14.4</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S27">
@@ -2977,14 +2977,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 21726-2025</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45783.56921296296</v>
+        <v>44868</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,17 +2996,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>8.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3021,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3031,45 +3036,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 23772-2025</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45793.48637731482</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,23 +3086,28 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3109,56 +3119,52 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,17 +3177,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3205,45 +3211,53 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="U30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 35155-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45933</v>
+        <v>45145</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3255,17 +3269,12 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
@@ -3276,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3285,59 +3294,55 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
-        <v/>
-      </c>
-      <c r="U31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35155-2023</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45145</v>
+        <v>44475</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3350,17 +3355,17 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3384,45 +3389,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>45009</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3434,8 +3439,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3444,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3459,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3469,53 +3479,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>45527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3533,13 +3539,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3567,45 +3573,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 16478-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45527</v>
+        <v>45751.57346064815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3617,13 +3623,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3657,45 +3658,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 19793-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>45432</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,17 +3710,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3728,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3737,55 +3738,55 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 26902-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>45470</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3797,11 +3798,16 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3832,49 +3838,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44475</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3887,16 +3889,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3911,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3921,45 +3923,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14092-2023</t>
+          <t>A 36505-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45009</v>
+        <v>45869.57192129629</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3973,11 +3975,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -4011,49 +4013,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
-        <v/>
-      </c>
-      <c r="Z39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 16478-2025</t>
+          <t>A 1946-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45751.57346064815</v>
+        <v>44575</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4066,13 +4064,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4100,45 +4098,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 26902-2024</t>
+          <t>A 21726-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45470</v>
+        <v>45783.56921296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4150,13 +4148,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4190,45 +4183,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 1946-2022</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44575</v>
+        <v>45933</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4240,24 +4233,29 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
@@ -4265,55 +4263,59 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U42">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 23772-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44868</v>
+        <v>45793.48637731482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4325,13 +4327,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>14.4</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -4340,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4355,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4365,45 +4362,49 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
+        <v/>
+      </c>
+      <c r="Z43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19793-2024</t>
+          <t>A 55044-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45432</v>
+        <v>45967.66005787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,23 +4416,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -4445,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4455,31 +4451,35 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <v/>
+      </c>
+      <c r="Z44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
         <v/>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
         <v>44260</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44263</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44509</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44874</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4885,14 +4885,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 14664-2021</t>
+          <t>A 52214-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44280</v>
+        <v>44462</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4942,14 +4942,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 52214-2021</t>
+          <t>A 14664-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44462</v>
+        <v>44280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>44586</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44254</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44355</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44460</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5289,14 +5289,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 27747-2021</t>
+          <t>A 12901-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44354</v>
+        <v>44271</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5306,11 +5306,6 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5351,14 +5346,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50117-2021</t>
+          <t>A 39133-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44456.64810185185</v>
+        <v>44412</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5371,7 +5366,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5408,14 +5403,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11368-2021</t>
+          <t>A 50117-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44263</v>
+        <v>44456.64810185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5428,7 +5423,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5465,14 +5460,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39133-2021</t>
+          <t>A 16437-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44412</v>
+        <v>44671</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5485,7 +5480,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5522,14 +5517,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12901-2021</t>
+          <t>A 37843-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44271</v>
+        <v>44810</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5542,7 +5537,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5579,14 +5574,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16437-2022</t>
+          <t>A 27747-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44671</v>
+        <v>44354</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5598,8 +5593,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5636,14 +5636,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 37843-2022</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44810</v>
+        <v>45317</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44460</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5807,14 +5807,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46688-2021</t>
+          <t>A 26909-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44445.63403935185</v>
+        <v>45470</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,8 +5826,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5864,14 +5869,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>45154</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5884,7 +5889,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5921,14 +5926,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44586</v>
+        <v>45293</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5941,7 +5946,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5978,14 +5983,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45771</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5998,7 +6003,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6035,14 +6040,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 11368-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44802</v>
+        <v>44263</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6055,7 +6060,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6092,14 +6097,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58928-2022</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44903</v>
+        <v>44602</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6111,13 +6116,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>9.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6154,14 +6154,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45541</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6211,14 +6211,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45266</v>
+        <v>44485</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6268,14 +6268,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 16520-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45145</v>
+        <v>45751.63434027778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,8 +6287,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6325,14 +6330,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44744</v>
+        <v>45266</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6345,7 +6350,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6382,14 +6387,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44744</v>
+        <v>44802</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6402,7 +6407,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6439,14 +6444,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>45043</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6459,7 +6464,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6496,14 +6501,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16520-2025</t>
+          <t>A 28981-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45751.63434027778</v>
+        <v>45104</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6515,13 +6520,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>12.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>45453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6615,14 +6615,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6672,14 +6672,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6729,14 +6729,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 47714-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44855</v>
+        <v>45198</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6786,14 +6786,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6843,14 +6843,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 28502-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>45103</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6900,14 +6900,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6957,14 +6957,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44445</v>
+        <v>44724</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.1</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>45243</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7071,14 +7071,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>45145</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7128,14 +7128,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45173</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7185,14 +7185,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45317</v>
+        <v>44564</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7242,14 +7242,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44744</v>
+        <v>45267</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7299,14 +7299,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51353-2024</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45604.36140046296</v>
+        <v>45226</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,8 +7318,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7356,14 +7361,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45145</v>
+        <v>45505</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7375,8 +7380,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7413,14 +7423,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45799</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7433,7 +7443,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7470,14 +7480,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45799</v>
+        <v>45541</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7490,7 +7500,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.9</v>
+        <v>2.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7527,14 +7537,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45799</v>
+        <v>45562</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7546,8 +7556,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>6.9</v>
+        <v>4.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7584,14 +7599,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45799</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7604,7 +7619,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7641,14 +7656,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28981-2023</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45104</v>
+        <v>44744</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7661,7 +7676,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>12.2</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7698,14 +7713,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16615-2024</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45408</v>
+        <v>44744</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7717,13 +7732,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7760,14 +7770,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7779,13 +7789,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7822,14 +7827,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44873</v>
+        <v>45173</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7841,13 +7846,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7884,14 +7884,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7903,8 +7903,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7941,14 +7946,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29336-2025</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45824.49658564815</v>
+        <v>44586</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7961,7 +7966,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7998,14 +8003,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 4443-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44810</v>
+        <v>44956.45393518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8018,7 +8023,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8055,14 +8060,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29770-2025</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45825.62880787037</v>
+        <v>44744</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8074,13 +8079,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8117,14 +8117,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 12907-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>45385</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.5</v>
+        <v>11.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8174,14 +8174,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 29336-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45154</v>
+        <v>45824.49658564815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8231,14 +8231,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4443-2023</t>
+          <t>A 29770-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44956.45393518519</v>
+        <v>45825.62880787037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8250,8 +8250,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8288,14 +8293,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47714-2023</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45198</v>
+        <v>45316</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8308,7 +8313,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8345,14 +8350,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31086-2025</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45832.59052083334</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8365,7 +8370,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8402,14 +8407,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 31086-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45933</v>
+        <v>45832.59052083334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8421,13 +8426,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8464,14 +8464,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>44441</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8483,13 +8483,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8526,14 +8521,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32044-2023</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45119</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8545,13 +8540,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8588,14 +8578,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45240</v>
+        <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8608,7 +8598,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8645,14 +8635,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 32044-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>45119</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8664,8 +8654,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8702,14 +8697,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45293</v>
+        <v>45145</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8722,7 +8717,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8759,14 +8754,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12907-2024</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45385</v>
+        <v>45240</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8779,7 +8774,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>11.9</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8816,14 +8811,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 26909-2024</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45470</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8835,13 +8830,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8878,14 +8868,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28502-2023</t>
+          <t>A 58928-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45103</v>
+        <v>44903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8897,8 +8887,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8935,14 +8930,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9562-2025</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45715.61215277778</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8954,13 +8949,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>4.4</v>
+        <v>10.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8997,14 +8987,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44977</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9017,7 +9007,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9054,14 +9044,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45316</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9073,8 +9063,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9111,14 +9106,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 9562-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45562</v>
+        <v>45715.61215277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9132,11 +9127,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9173,14 +9168,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45043</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9192,8 +9187,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9230,14 +9230,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>44354</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9249,8 +9249,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>7.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9287,14 +9292,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45243</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9307,7 +9312,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>11.4</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9344,14 +9349,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45505</v>
+        <v>44445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9363,13 +9368,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>8.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9406,14 +9406,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44455</v>
+        <v>45243</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9463,14 +9463,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9520,14 +9520,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>44810</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9577,14 +9577,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45145</v>
+        <v>44810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9634,14 +9634,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45965</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9691,14 +9691,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45503</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>45250</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9805,14 +9805,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>45503</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9862,14 +9862,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>44740</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9919,14 +9919,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44564</v>
+        <v>45243</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>11.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9976,14 +9976,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10033,14 +10033,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>45266</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10090,14 +10090,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>44873</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10109,8 +10109,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10147,14 +10152,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>44844</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10167,7 +10172,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10204,14 +10209,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 243-2026</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46027.39109953704</v>
+        <v>45317</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10224,7 +10229,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10261,14 +10266,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45197</v>
+        <v>44802</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10281,7 +10286,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10318,14 +10323,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>45145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10338,7 +10343,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10375,14 +10380,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10395,7 +10400,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10432,14 +10437,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44802</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10452,7 +10457,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10489,14 +10494,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44381</v>
+        <v>45293</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10509,7 +10514,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10546,14 +10551,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45226</v>
+        <v>45435</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10567,11 +10572,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10608,14 +10613,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>44381</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10628,7 +10633,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10665,14 +10670,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10685,7 +10690,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10722,14 +10727,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2542-2026</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46037.46063657408</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10742,7 +10747,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10779,14 +10784,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>45090</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10799,7 +10804,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10836,14 +10841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 3334-2026</t>
+          <t>A 46688-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46041.78353009259</v>
+        <v>44445.63403935185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10856,7 +10861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10893,14 +10898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3152-2026</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46041.42630787037</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10913,7 +10918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10950,14 +10955,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10970,7 +10975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11007,14 +11012,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>44859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11026,8 +11031,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11064,14 +11074,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61735-2025</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46002.594375</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11084,7 +11094,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11121,14 +11131,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>45524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11141,7 +11151,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11178,14 +11188,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11198,7 +11208,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11235,14 +11245,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45266</v>
+        <v>44673</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11254,8 +11264,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11292,14 +11307,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45090</v>
+        <v>45197</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11312,7 +11327,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11349,14 +11364,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>45562</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11368,8 +11383,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11406,14 +11426,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62049-2025</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46006.3159837963</v>
+        <v>44802</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11426,7 +11446,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>10.4</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11463,14 +11483,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11482,8 +11502,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11520,14 +11545,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45293</v>
+        <v>45216</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11540,7 +11565,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11577,14 +11602,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11597,7 +11622,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11634,14 +11659,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11654,7 +11679,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11691,14 +11716,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 16615-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>45408</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11710,8 +11735,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11748,14 +11778,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>44956</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11768,7 +11798,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>9.5</v>
+        <v>18.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11805,14 +11835,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44673</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11824,13 +11854,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11867,14 +11892,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44844</v>
+        <v>45771</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11887,7 +11912,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11931,7 +11956,7 @@
         <v>45603.46126157408</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11981,14 +12006,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 9891-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>45716.70479166666</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12001,7 +12026,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12038,14 +12063,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45562</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12059,11 +12084,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12100,14 +12125,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12120,7 +12145,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>10.8</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12157,14 +12182,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44859</v>
+        <v>45933</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12178,11 +12203,11 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12219,14 +12244,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12239,7 +12264,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12276,14 +12301,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44740</v>
+        <v>44855</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12296,7 +12321,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12333,14 +12358,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45267</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12353,7 +12378,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12390,14 +12415,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44485</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12410,7 +12435,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12447,14 +12472,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>45799</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12466,13 +12491,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>10.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12509,14 +12529,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44602</v>
+        <v>45799</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12529,7 +12549,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>7.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12566,14 +12586,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44354</v>
+        <v>45799</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12585,13 +12605,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12628,14 +12643,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44571</v>
+        <v>45799</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12648,7 +12663,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12685,14 +12700,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>45965</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,13 +12719,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12747,14 +12757,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44802</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12777,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12804,14 +12814,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45317</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12834,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12861,14 +12871,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 243-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44724</v>
+        <v>46027.39109953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12891,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12918,14 +12928,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44810</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12948,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12975,14 +12985,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +13005,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13032,14 +13042,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13062,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13089,14 +13099,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44441</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13119,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13146,14 +13156,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45435</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13165,13 +13175,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13208,14 +13213,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44802</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13228,7 +13233,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13265,14 +13270,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 2542-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>46037.46063657408</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13284,13 +13289,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13327,14 +13327,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13384,14 +13384,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 3334-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45243</v>
+        <v>46041.78353009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13441,14 +13441,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 3152-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45216</v>
+        <v>46041.42630787037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13498,14 +13498,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 61735-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45524</v>
+        <v>46002.594375</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13555,14 +13555,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44956</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>18.4</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13612,14 +13612,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 62049-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>46006.3159837963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.1</v>
+        <v>10.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13669,14 +13669,14 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 12772-2021</t>
+          <t>A 36955-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44270</v>
+        <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -901,20 +901,20 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>31.5</v>
+        <v>7.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -925,15 +925,210 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
         <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>7</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka
+Svart taggsvamp
+Talltita
+Björksplintborre
+Dropptaggsvamp
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 35012-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik
+Vedskivlav
+Vedtrappmossa
+Blodticka
+Flagellkvastmossa
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 12772-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44270</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skogshare
 Gulvaxing
@@ -944,237 +1139,42 @@
 Ängsvaxskivling</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12772-2021 artfynd.xlsx", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12772-2021 karta.png", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12772-2021 FSC-klagomål.docx", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12772-2021 FSC-klagomål mail.docx", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12772-2021 tillsynsbegäran.docx", "A 12772-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12772-2021 tillsynsbegäran mail.docx", "A 12772-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 35012-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Kortskaftad ärgspik
-Vedskivlav
-Vedtrappmossa
-Blodticka
-Flagellkvastmossa
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 36955-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45538</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka
-Svart taggsvamp
-Talltita
-Björksplintborre
-Dropptaggsvamp
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 97-2024</t>
+          <t>A 47697-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45293</v>
+        <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1220,6 +1220,190 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Motaggsvamp
+Fjällig taggsvamp s.str.
+Rödgul trumpetsvamp
+Tjäder
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 57411-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45980.4487037037</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ullticka
+Grön sköldmossa
+Grönpyrola
+Jättesvampmal
+Trådticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 97-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -1229,212 +1413,28 @@
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 47697-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Motaggsvamp
-Fjällig taggsvamp s.str.
-Rödgul trumpetsvamp
-Tjäder
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 57411-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45980.4487037037</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Grön sköldmossa
-Grönpyrola
-Jättesvampmal
-Trådticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,14 +1628,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 4384-2022</t>
+          <t>A 14771-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44589</v>
+        <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,25 +1647,20 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1677,15 +1672,108 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Grönpyrola
+Vanlig groda
+Vanlig padda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14771-2022 artfynd.xlsx", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14771-2022 karta.png", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14771-2022 FSC-klagomål.docx", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14771-2022 FSC-klagomål mail.docx", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14771-2022 tillsynsbegäran.docx", "A 14771-2022")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14771-2022 tillsynsbegäran mail.docx", "A 14771-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 4384-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Dunmossa
@@ -1693,134 +1781,46 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 4384-2022 artfynd.xlsx", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 4384-2022 karta.png", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="U13">
+      <c r="U14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 4384-2022 karta knärot.png", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 4384-2022 FSC-klagomål.docx", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 4384-2022 FSC-klagomål mail.docx", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 4384-2022 tillsynsbegäran.docx", "A 4384-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 4384-2022 tillsynsbegäran mail.docx", "A 4384-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 14771-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola
-Vanlig groda
-Vanlig padda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14771-2022 artfynd.xlsx", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14771-2022 karta.png", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14771-2022 FSC-klagomål.docx", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14771-2022 FSC-klagomål mail.docx", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14771-2022 tillsynsbegäran.docx", "A 14771-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14771-2022 tillsynsbegäran mail.docx", "A 14771-2022")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 27971-2022</t>
+          <t>A 47711-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44744</v>
+        <v>45198</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,16 +1833,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1866,121 +1866,121 @@
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Jättesvampmal
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 27971-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44744</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Blåmossa
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 47711-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Jättesvampmal
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
         <v/>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 27058-2024</t>
+          <t>A 35937-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45471</v>
+        <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,610 +2098,610 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 27058-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45471</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Persiljespindling
 Gröngöling</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 36502-2025</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45869.56332175926</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>3.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Svart taggsvamp
 Tjäder</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 66734-2021</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44520</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 3711-2026</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46043.48092592593</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 16535-2025</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>45751.65542824074</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>1.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Tibast
 Blåsippa</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 35937-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45148</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 43525-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 66734-2021</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44520</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 3711-2026</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>46043.48092592593</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2887,14 +2887,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 23772-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44868</v>
+        <v>45793.48637731482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,13 +2906,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>14.4</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2921,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2936,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2946,45 +2941,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44868</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2996,13 +2995,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3036,45 +3030,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 36505-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>45869.57192129629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3088,14 +3082,14 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3107,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3116,55 +3110,55 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 35155-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>45145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3171,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3186,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3201,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3211,53 +3205,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35155-2023</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45145</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3270,7 +3256,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3279,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3294,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3304,45 +3290,53 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44475</v>
+        <v>45527</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3354,17 +3348,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3379,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3389,45 +3388,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 14092-2023</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45009</v>
+        <v>45933</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3441,27 +3440,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
@@ -3469,59 +3468,59 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45527</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3535,27 +3534,27 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -3563,55 +3562,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16478-2025</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45751.57346064815</v>
+        <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,17 +3623,17 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3658,45 +3657,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19793-2024</t>
+          <t>A 55044-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45432</v>
+        <v>45967.66005787037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,23 +3707,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3738,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3748,45 +3742,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26902-2024</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45470</v>
+        <v>45009</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3800,20 +3798,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3828,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3838,45 +3836,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 16478-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>45751.57346064815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3889,7 +3891,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3923,45 +3925,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 26902-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>45470</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3975,21 +3977,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4013,31 +4015,31 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
     </row>
@@ -4051,7 +4053,7 @@
         <v>44575</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4129,14 +4131,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21726-2025</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45783.56921296296</v>
+        <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4148,17 +4150,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>14.4</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -4173,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4183,45 +4190,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 19793-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45933</v>
+        <v>45432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4235,18 +4242,18 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
@@ -4254,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4263,59 +4270,55 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
-        <v/>
-      </c>
-      <c r="U42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 23772-2025</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45793.48637731482</v>
+        <v>44868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4327,17 +4330,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4352,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4362,49 +4370,45 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
-        <v/>
-      </c>
-      <c r="Z43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 21726-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>45783.56921296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4417,10 +4421,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4451,49 +4455,45 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
-        <v/>
-      </c>
-      <c r="Z44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11126-2021</t>
+          <t>A 40751-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44260</v>
+        <v>44420</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4543,14 +4543,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40751-2021</t>
+          <t>A 11126-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44420</v>
+        <v>44260</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>44263</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44509</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44874</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44462</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44586</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44254</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44355</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44460</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5289,14 +5289,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 12901-2021</t>
+          <t>A 27747-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44271</v>
+        <v>44354</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5306,6 +5306,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5346,14 +5351,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39133-2021</t>
+          <t>A 50117-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44412</v>
+        <v>44456.64810185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5366,7 +5371,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5403,14 +5408,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 50117-2021</t>
+          <t>A 11368-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44456.64810185185</v>
+        <v>44263</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5423,7 +5428,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5460,14 +5465,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16437-2022</t>
+          <t>A 39133-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44671</v>
+        <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5480,7 +5485,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5517,14 +5522,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37843-2022</t>
+          <t>A 12901-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44810</v>
+        <v>44271</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5537,7 +5542,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5574,14 +5579,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 27747-2021</t>
+          <t>A 16437-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44354</v>
+        <v>44671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5593,13 +5598,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5636,14 +5636,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 37843-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45317</v>
+        <v>44810</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44460</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5807,14 +5807,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26909-2024</t>
+          <t>A 46688-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45470</v>
+        <v>44445.63403935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5826,13 +5826,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5869,14 +5864,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45154</v>
+        <v>44586</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5889,7 +5884,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5926,14 +5921,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45293</v>
+        <v>45771</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5946,7 +5941,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5983,14 +5978,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 58928-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>44903</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6002,8 +5997,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6040,14 +6040,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11368-2021</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44263</v>
+        <v>45266</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6097,14 +6097,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44602</v>
+        <v>44744</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6154,14 +6154,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>44744</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6211,14 +6211,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 16520-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44485</v>
+        <v>45751.63434027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6230,8 +6230,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6268,14 +6273,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16520-2025</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45751.63434027778</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6287,13 +6292,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6330,14 +6330,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45266</v>
+        <v>45799</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6387,14 +6387,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44802</v>
+        <v>45799</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6444,14 +6444,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45043</v>
+        <v>45799</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6501,14 +6501,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28981-2023</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45104</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>12.2</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6558,14 +6558,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23367-2024</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45453</v>
+        <v>45799</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>10.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6615,14 +6615,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44455</v>
+        <v>44445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>8.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6672,14 +6672,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 56349-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44977</v>
+        <v>45243</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6729,14 +6729,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47714-2023</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45198</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6786,14 +6786,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>45173</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6843,14 +6843,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28502-2023</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45103</v>
+        <v>45317</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6900,14 +6900,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>44744</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6957,14 +6957,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44724</v>
+        <v>45145</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7014,14 +7014,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56349-2023</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45243</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,8 +7033,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7071,14 +7076,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 29336-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45145</v>
+        <v>45824.49658564815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7091,7 +7096,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7128,14 +7133,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 29770-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>45825.62880787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7147,8 +7152,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7185,14 +7195,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 28981-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44564</v>
+        <v>45104</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7205,7 +7215,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>12.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7242,14 +7252,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 16615-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45267</v>
+        <v>45408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,8 +7271,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7299,14 +7314,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 31086-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45226</v>
+        <v>45832.59052083334</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7318,13 +7333,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7361,14 +7371,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45505</v>
+        <v>44873</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7386,7 +7396,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7423,14 +7433,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7443,7 +7453,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7480,14 +7490,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45541</v>
+        <v>44810</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7500,7 +7510,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7537,14 +7547,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45562</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7556,13 +7566,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7599,14 +7604,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>45154</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7619,7 +7624,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7656,14 +7661,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 4443-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44744</v>
+        <v>44956.45393518519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7676,7 +7681,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7713,14 +7718,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 47714-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44744</v>
+        <v>45198</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7733,7 +7738,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7770,14 +7775,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7790,7 +7795,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7827,14 +7832,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 32044-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45173</v>
+        <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7846,8 +7851,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7884,14 +7894,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>45240</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7903,13 +7913,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7946,14 +7951,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44586</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7966,7 +7971,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8003,14 +8008,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4443-2023</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44956.45393518519</v>
+        <v>45293</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8023,7 +8028,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8060,14 +8065,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 12907-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44744</v>
+        <v>45385</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8080,7 +8085,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>11.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8117,14 +8122,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12907-2024</t>
+          <t>A 26909-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45385</v>
+        <v>45470</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8136,8 +8141,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>11.9</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8174,14 +8184,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29336-2025</t>
+          <t>A 28502-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45824.49658564815</v>
+        <v>45103</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8194,7 +8204,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8231,14 +8241,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29770-2025</t>
+          <t>A 9562-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45825.62880787037</v>
+        <v>45715.61215277778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8256,7 +8266,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8293,14 +8303,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45316</v>
+        <v>44977</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8313,7 +8323,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8350,14 +8360,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8370,7 +8380,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8407,14 +8417,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 31086-2025</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45832.59052083334</v>
+        <v>45316</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8464,14 +8474,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44441</v>
+        <v>45562</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8483,8 +8493,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8521,14 +8536,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>45043</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8541,7 +8556,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8578,14 +8593,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44571</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8598,7 +8613,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8635,14 +8650,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32044-2023</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45119</v>
+        <v>45243</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8654,13 +8669,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>11.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8697,14 +8707,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45145</v>
+        <v>45505</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8716,8 +8726,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8754,14 +8769,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45240</v>
+        <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8774,7 +8789,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8811,14 +8826,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>45933</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8830,8 +8845,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8868,14 +8888,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58928-2022</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44903</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8889,11 +8909,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8930,14 +8950,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8950,7 +8970,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>10.8</v>
+        <v>4.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8987,14 +9007,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>45145</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9007,7 +9027,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9044,14 +9064,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>45503</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9063,13 +9083,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9106,14 +9121,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 9562-2025</t>
+          <t>A 58140-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45715.61215277778</v>
+        <v>45250</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9125,13 +9140,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9168,14 +9178,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9187,13 +9197,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9230,14 +9235,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44354</v>
+        <v>44564</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9249,13 +9254,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>7.9</v>
+        <v>3.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9292,14 +9292,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9349,14 +9349,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44445</v>
+        <v>45197</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.1</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9406,14 +9406,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45243</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9463,14 +9463,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>44802</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9520,14 +9520,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44810</v>
+        <v>44381</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9577,14 +9577,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44810</v>
+        <v>45226</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9596,8 +9596,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9634,14 +9639,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>45965</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9654,7 +9659,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9691,14 +9696,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9711,7 +9716,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9748,14 +9753,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58140-2023</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45250</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9768,7 +9773,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9805,14 +9810,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45503</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9825,7 +9830,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9862,14 +9867,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44740</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9882,7 +9887,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9919,14 +9924,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45243</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9939,7 +9944,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>11.4</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9976,14 +9981,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 243-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>46027.39109953704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9996,7 +10001,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10033,14 +10038,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45266</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10053,7 +10058,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10090,14 +10095,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44873</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10109,13 +10114,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10152,14 +10152,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44844</v>
+        <v>45266</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10209,14 +10209,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45317</v>
+        <v>45090</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10266,14 +10266,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44802</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.1</v>
+        <v>4.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10323,14 +10323,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45145</v>
+        <v>45293</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10380,14 +10380,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10437,14 +10437,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10494,14 +10494,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45293</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10551,14 +10551,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45435</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10570,13 +10570,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10613,14 +10608,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44381</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10628,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10670,14 +10665,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10685,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10727,14 +10722,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10742,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10784,14 +10779,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45090</v>
+        <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10803,8 +10798,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10841,14 +10841,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46688-2021</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44445.63403935185</v>
+        <v>44844</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10898,14 +10898,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 2542-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>46037.46063657408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10955,14 +10955,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44802</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11012,14 +11012,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 51082-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44859</v>
+        <v>45603.46126157408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11031,13 +11031,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11074,14 +11069,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 3334-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>46041.78353009259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11094,7 +11089,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11131,14 +11126,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45524</v>
+        <v>45562</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11150,8 +11145,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11188,14 +11188,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 3152-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>46041.42630787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11245,14 +11245,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44673</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11264,13 +11264,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11307,14 +11302,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45197</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11327,7 +11322,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>10.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11364,14 +11359,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45562</v>
+        <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11385,11 +11380,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11426,14 +11421,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44802</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11446,7 +11441,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11483,14 +11478,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 61735-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>46002.594375</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11502,13 +11497,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11545,14 +11535,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45216</v>
+        <v>44740</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11565,7 +11555,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11602,14 +11592,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>45267</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11622,7 +11612,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11659,14 +11649,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11679,7 +11669,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11716,14 +11706,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 16615-2024</t>
+          <t>A 62049-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45408</v>
+        <v>46006.3159837963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11735,13 +11725,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>10.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11778,14 +11763,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44956</v>
+        <v>44485</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11798,7 +11783,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>18.4</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11835,14 +11820,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11854,8 +11839,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11892,14 +11882,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45771</v>
+        <v>44602</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11912,7 +11902,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11949,14 +11939,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51082-2024</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45603.46126157408</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11969,7 +11959,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12006,14 +11996,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>44354</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12025,8 +12015,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2.2</v>
+        <v>7.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12063,14 +12058,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>44571</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12082,13 +12077,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12125,14 +12115,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12144,8 +12134,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12182,14 +12177,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45933</v>
+        <v>44802</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12201,13 +12196,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12244,14 +12234,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>45317</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12264,7 +12254,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12301,14 +12291,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44855</v>
+        <v>44724</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12321,7 +12311,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12358,14 +12348,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>44810</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12378,7 +12368,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12415,14 +12405,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 51353-2024</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45604.36140046296</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12435,7 +12425,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12472,14 +12462,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45799</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12492,7 +12482,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>10.8</v>
+        <v>2.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12529,14 +12519,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45799</v>
+        <v>44441</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12549,7 +12539,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12586,14 +12576,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45799</v>
+        <v>45435</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12605,8 +12595,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12643,14 +12638,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45799</v>
+        <v>44802</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12663,7 +12658,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12700,14 +12695,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45965</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12719,8 +12714,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12757,14 +12757,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12814,14 +12814,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>45243</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12871,14 +12871,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 243-2026</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46027.39109953704</v>
+        <v>45216</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12928,14 +12928,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>45524</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12985,14 +12985,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>44956</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>18.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13042,14 +13042,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13099,14 +13099,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13156,14 +13156,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13213,14 +13213,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>44802</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13270,14 +13270,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2542-2026</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46037.46063657408</v>
+        <v>45541</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13327,14 +13327,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>45145</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13384,14 +13384,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3334-2026</t>
+          <t>A 23367-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46041.78353009259</v>
+        <v>45453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13441,14 +13441,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 3152-2026</t>
+          <t>A 9891-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46041.42630787037</v>
+        <v>45716.70479166666</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13498,14 +13498,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 61735-2025</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46002.594375</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13555,14 +13555,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>44855</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13612,14 +13612,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 62049-2025</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46006.3159837963</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>10.4</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13669,14 +13669,14 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45980.4487037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45198</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45471</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45869.56332175926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45184</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2446,14 +2446,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 66734-2021</t>
+          <t>A 3711-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44520</v>
+        <v>46043.48092592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,17 +2466,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2500,122 +2500,122 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 66734-2021</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44520</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Skarp dropptaggsvamp
 Svavelriska</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 3711-2026</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>46043.48092592593</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
         <v/>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
         <v>45751.65542824074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45793.48637731482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>45720.39356481482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,14 +3061,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>45933</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3082,27 +3082,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -3110,55 +3110,59 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35155-2023</t>
+          <t>A 36505-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45145</v>
+        <v>45869.57192129629</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,8 +3174,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3209,41 +3218,41 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 35155-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>45145</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3265,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3265,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3280,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3290,53 +3299,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 55044-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45527</v>
+        <v>45967.66005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,23 +3349,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3378,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3388,45 +3384,49 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <v/>
+      </c>
+      <c r="Z32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45933</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3438,28 +3438,23 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3471,56 +3466,60 @@
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>45527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,17 +3533,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3553,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3562,55 +3561,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44475</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,8 +3621,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3632,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3650,52 +3654,52 @@
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3708,10 +3712,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3742,35 +3746,31 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
         <v>45009</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>45751.57346064815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45470</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44575</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>45432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45783.56921296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4486,14 +4486,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40751-2021</t>
+          <t>A 11126-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44420</v>
+        <v>44260</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4543,14 +4543,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11126-2021</t>
+          <t>A 40751-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44260</v>
+        <v>44420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>44263</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>44509</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>44874</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44462</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44586</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44254</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44355</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44460</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>44354</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>44263</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>44412</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>44271</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>44810</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>44460</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>44445.63403935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5864,14 +5864,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44586</v>
+        <v>45771</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5921,14 +5921,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45771</v>
+        <v>45266</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>44903</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6040,14 +6040,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45266</v>
+        <v>44586</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>44744</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>44744</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45751.63434027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6273,14 +6273,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51353-2024</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45604.36140046296</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6330,14 +6330,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45799</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6387,14 +6387,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 61735-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45799</v>
+        <v>46002.594375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.9</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6444,14 +6444,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45799</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6501,14 +6501,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>45799</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6558,14 +6558,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>10.8</v>
+        <v>7.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6615,14 +6615,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44445</v>
+        <v>45799</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6672,14 +6672,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 56349-2023</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45243</v>
+        <v>45799</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>10.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6729,14 +6729,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6786,14 +6786,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45173</v>
+        <v>44445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>8.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6843,14 +6843,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 56349-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45317</v>
+        <v>45243</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6900,14 +6900,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44744</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6957,14 +6957,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45145</v>
+        <v>45173</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7014,14 +7014,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>45317</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7033,13 +7033,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7076,14 +7071,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 29336-2025</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45824.49658564815</v>
+        <v>44744</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7096,7 +7091,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7133,14 +7128,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29770-2025</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45825.62880787037</v>
+        <v>45145</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7152,13 +7147,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7195,14 +7185,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28981-2023</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45104</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7215,7 +7205,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>12.2</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7252,14 +7242,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16615-2024</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45408</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7277,7 +7267,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7314,14 +7304,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31086-2025</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45832.59052083334</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7334,7 +7324,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7371,14 +7361,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 62049-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44873</v>
+        <v>46006.3159837963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7390,13 +7380,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>10.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7433,14 +7418,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 29336-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>45824.49658564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7453,7 +7438,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7490,14 +7475,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 29770-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44810</v>
+        <v>45825.62880787037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7509,8 +7494,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7547,14 +7537,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 28981-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>45104</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7567,7 +7557,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.5</v>
+        <v>12.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7604,14 +7594,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 31086-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45154</v>
+        <v>45832.59052083334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7661,14 +7651,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4443-2023</t>
+          <t>A 16615-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44956.45393518519</v>
+        <v>45408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7680,8 +7670,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7718,14 +7713,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47714-2023</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45198</v>
+        <v>44873</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7737,8 +7732,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7775,14 +7775,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7832,14 +7832,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32044-2023</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45119</v>
+        <v>44810</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7851,13 +7851,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7894,14 +7889,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45240</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7914,7 +7909,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7951,14 +7946,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>45154</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7971,7 +7966,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8008,14 +8003,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45293</v>
+        <v>45933</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8027,8 +8022,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8065,14 +8065,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 12907-2024</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45385</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8084,8 +8084,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>11.9</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8122,14 +8127,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26909-2024</t>
+          <t>A 4443-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45470</v>
+        <v>44956.45393518519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8141,13 +8146,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8184,14 +8184,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28502-2023</t>
+          <t>A 47714-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45103</v>
+        <v>45198</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8241,14 +8241,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 9562-2025</t>
+          <t>A 32044-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45715.61215277778</v>
+        <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8303,14 +8303,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44977</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8360,14 +8360,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>45240</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8417,14 +8417,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45316</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8474,14 +8474,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45562</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8493,13 +8493,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8536,14 +8531,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45043</v>
+        <v>45293</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8551,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8593,14 +8588,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 12907-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>45385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8608,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>11.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8650,14 +8645,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 26909-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45243</v>
+        <v>45470</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8669,8 +8664,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>11.4</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8707,14 +8707,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 28502-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45505</v>
+        <v>45103</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8726,13 +8726,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8769,14 +8764,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44455</v>
+        <v>45965</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8789,7 +8784,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8826,14 +8821,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 9562-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45933</v>
+        <v>45715.61215277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8847,11 +8842,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8888,14 +8883,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>44977</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8907,13 +8902,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8950,14 +8940,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>45316</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8970,7 +8960,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9007,14 +8997,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45145</v>
+        <v>45562</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9026,8 +9016,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9064,14 +9059,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45503</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9084,7 +9079,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9121,14 +9116,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58140-2023</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45250</v>
+        <v>45043</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9141,7 +9136,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9178,14 +9173,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9198,7 +9193,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9235,14 +9230,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44564</v>
+        <v>45243</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9255,7 +9250,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.4</v>
+        <v>11.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9292,14 +9287,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>45505</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9311,8 +9306,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9349,14 +9349,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45197</v>
+        <v>44455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9406,14 +9406,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,14 +9463,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 243-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44802</v>
+        <v>46027.39109953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9520,14 +9520,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44381</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9577,14 +9577,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45226</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9596,13 +9596,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9639,14 +9634,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45965</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9659,7 +9654,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9696,14 +9691,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>45145</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9716,7 +9711,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9753,14 +9748,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9773,7 +9768,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9810,14 +9805,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9830,7 +9825,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9867,14 +9862,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9887,7 +9882,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9924,14 +9919,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 2542-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>46037.46063657408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9944,7 +9939,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9981,14 +9976,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 243-2026</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46027.39109953704</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10001,7 +9996,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10038,14 +10033,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>45503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10058,7 +10053,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10095,14 +10090,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 58140-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>45250</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10115,7 +10110,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10152,14 +10147,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 3334-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45266</v>
+        <v>46041.78353009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10172,7 +10167,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10209,14 +10204,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 3152-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45090</v>
+        <v>46041.42630787037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10229,7 +10224,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10266,14 +10261,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10286,7 +10281,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10323,14 +10318,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45293</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10343,7 +10338,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10380,14 +10375,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>44564</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10400,7 +10395,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10437,14 +10432,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10457,7 +10452,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10494,14 +10489,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>45197</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10514,7 +10509,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10551,14 +10546,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10571,7 +10566,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10608,14 +10603,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>44802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10628,7 +10623,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10665,14 +10660,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>44381</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10685,7 +10680,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10722,14 +10717,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>45226</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10741,8 +10736,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>9.5</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10779,14 +10779,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44673</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10798,13 +10798,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10841,14 +10836,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44844</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10856,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10898,14 +10893,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 2542-2026</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46037.46063657408</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10913,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10955,14 +10950,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>45266</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10970,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11012,14 +11007,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 51082-2024</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45603.46126157408</v>
+        <v>45090</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11027,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11069,14 +11064,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3334-2026</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46041.78353009259</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11084,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11126,14 +11121,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45562</v>
+        <v>45293</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11145,13 +11140,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11188,14 +11178,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 3152-2026</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46041.42630787037</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11208,7 +11198,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11245,14 +11235,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11265,7 +11255,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11302,14 +11292,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11312,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11359,14 +11349,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44859</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11378,13 +11368,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>9.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11421,14 +11406,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>44673</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11440,8 +11425,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>9.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11478,14 +11468,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61735-2025</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46002.594375</v>
+        <v>44844</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11498,7 +11488,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11535,14 +11525,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 51082-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44740</v>
+        <v>45603.46126157408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11545,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11592,14 +11582,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45267</v>
+        <v>45562</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11611,8 +11601,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11649,14 +11644,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11664,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>10.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11706,14 +11701,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62049-2025</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46006.3159837963</v>
+        <v>44859</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11725,8 +11720,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>10.4</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11763,14 +11763,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44485</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11820,14 +11820,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>44740</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,13 +11839,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11882,14 +11877,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44602</v>
+        <v>45267</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11902,7 +11897,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11939,14 +11934,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>44485</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11959,7 +11954,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11996,14 +11991,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44354</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12021,7 +12016,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12058,14 +12053,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44571</v>
+        <v>44602</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12078,7 +12073,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12115,14 +12110,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>44354</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12140,7 +12135,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.7</v>
+        <v>7.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12177,14 +12172,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44802</v>
+        <v>44571</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12197,7 +12192,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12234,14 +12229,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45317</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12253,8 +12248,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12291,14 +12291,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44724</v>
+        <v>44802</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12348,14 +12348,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44810</v>
+        <v>45317</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12405,14 +12405,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>44724</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12462,14 +12462,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>44810</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12519,14 +12519,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44441</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12576,14 +12576,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45435</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12595,13 +12595,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12638,14 +12633,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44802</v>
+        <v>44441</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12658,7 +12653,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12695,14 +12690,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>45435</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12716,11 +12711,11 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12757,14 +12752,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>44802</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12777,7 +12772,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12814,14 +12809,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45243</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12833,8 +12828,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12871,14 +12871,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45216</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12928,14 +12928,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45524</v>
+        <v>45243</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12985,14 +12985,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44956</v>
+        <v>45216</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>18.4</v>
+        <v>2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13042,14 +13042,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>45524</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13099,14 +13099,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>44956</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>18.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13156,14 +13156,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13213,14 +13213,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44802</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.3</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13270,14 +13270,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45541</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13327,14 +13327,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45145</v>
+        <v>44802</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13384,14 +13384,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23367-2024</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45453</v>
+        <v>45541</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13441,14 +13441,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>45145</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13498,14 +13498,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 23367-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>45453</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13555,14 +13555,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 9891-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44855</v>
+        <v>45716.70479166666</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13612,14 +13612,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13669,14 +13669,14 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>44855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z204"/>
+  <dimension ref="A1:Z206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,14 +1167,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 47697-2023</t>
+          <t>A 57411-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45198</v>
+        <v>45980.4487037037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1220,6 +1220,96 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Ullticka
+Grön sköldmossa
+Grönpyrola
+Jättesvampmal
+Trådticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 47697-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Motaggsvamp
@@ -1229,122 +1319,32 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 57411-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45980.4487037037</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Grön sköldmossa
-Grönpyrola
-Jättesvampmal
-Trådticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 47711-2023</t>
+          <t>A 27971-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45198</v>
+        <v>44744</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,16 +1833,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1866,121 +1866,121 @@
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåmossa
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 47711-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Jättesvampmal
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 27971-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44744</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåmossa
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
         <v/>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45471</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45869.56332175926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2355,14 +2355,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 43525-2023</t>
+          <t>A 3711-2026</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45184</v>
+        <v>46043.48092592593</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2374,13 +2374,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2389,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2404,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2414,122 +2409,127 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Slåtterfibbla
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 3711-2026</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>46043.48092592593</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
         <v/>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
         <v>44520</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45751.65542824074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45793.48637731482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,14 +2976,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>45933</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2995,24 +2995,29 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
@@ -3020,55 +3025,59 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45933</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3080,20 +3089,15 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3110,45 +3114,41 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
-        <v/>
-      </c>
-      <c r="U29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
         <v>45869.57192129629</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45145</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>45967.66005787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>45610.55574074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45527</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45385.50599537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44475</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3777,14 +3777,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14092-2023</t>
+          <t>A 9205-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45009</v>
+        <v>46070.41689814815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,19 +3796,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3836,49 +3831,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 9205-2026 artfynd.xlsx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 9205-2026 karta.png", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 9205-2026 FSC-klagomål.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 9205-2026 FSC-klagomål mail.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 9205-2026 tillsynsbegäran.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 9205-2026 tillsynsbegäran mail.docx", "A 9205-2026")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 16478-2025</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45751.57346064815</v>
+        <v>45009</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3890,14 +3881,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3925,45 +3921,49 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26902-2024</t>
+          <t>A 16478-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45470</v>
+        <v>45751.57346064815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3975,22 +3975,17 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4005,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4015,45 +4010,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1946-2022</t>
+          <t>A 26902-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44575</v>
+        <v>45470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4065,18 +4060,23 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>6.7</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4100,45 +4100,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 1946-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44868</v>
+        <v>44575</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4150,13 +4150,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>14.4</v>
+        <v>6.7</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -4190,45 +4185,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19793-2024</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45432</v>
+        <v>44868</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4242,17 +4237,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>14.4</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4280,45 +4275,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 19793-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44868</v>
+        <v>45432</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4332,11 +4327,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>8.4</v>
+        <v>4.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4370,45 +4365,45 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 21726-2025</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45783.56921296296</v>
+        <v>44868</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4420,17 +4415,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>8.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4455,45 +4455,45 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11126-2021</t>
+          <t>A 21726-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44260</v>
+        <v>45783.56921296296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4530,27 +4530,55 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>Druvfingersvamp</t>
+        </is>
+      </c>
+      <c r="S45">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
+        <v/>
+      </c>
+      <c r="T45">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
+        <v/>
+      </c>
+      <c r="V45">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
+        <v/>
+      </c>
+      <c r="W45">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
+        <v/>
+      </c>
+      <c r="X45">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
+        <v/>
+      </c>
+      <c r="Y45">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
+        <v/>
+      </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40751-2021</t>
+          <t>A 11126-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44420</v>
+        <v>44260</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4591,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4600,14 +4628,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11360-2021</t>
+          <t>A 40751-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44263</v>
+        <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4620,7 +4648,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4664,7 +4692,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4714,14 +4742,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 64111-2021</t>
+          <t>A 11360-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44509</v>
+        <v>44263</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4734,7 +4762,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4771,14 +4799,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52541-2022</t>
+          <t>A 64111-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44874</v>
+        <v>44509</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4791,7 +4819,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4828,14 +4856,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12126-2021</t>
+          <t>A 52541-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44266</v>
+        <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4848,7 +4876,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4885,14 +4913,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52214-2021</t>
+          <t>A 12126-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44462</v>
+        <v>44266</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4905,7 +4933,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4942,14 +4970,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14664-2021</t>
+          <t>A 52214-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44280</v>
+        <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4962,7 +4990,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4999,14 +5027,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3596-2022</t>
+          <t>A 14664-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44586</v>
+        <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5019,7 +5047,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5056,14 +5084,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9986-2021</t>
+          <t>A 3596-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44254</v>
+        <v>44586</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5076,7 +5104,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5113,14 +5141,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3592-2022</t>
+          <t>A 9986-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44586.35570601852</v>
+        <v>44254</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5133,7 +5161,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5170,14 +5198,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28136-2021</t>
+          <t>A 3592-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44355</v>
+        <v>44586.35570601852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5189,13 +5217,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5232,14 +5255,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 51454-2021</t>
+          <t>A 28136-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44460</v>
+        <v>44355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5251,8 +5274,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5289,14 +5317,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 27747-2021</t>
+          <t>A 51454-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44354</v>
+        <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5308,13 +5336,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5351,14 +5374,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50117-2021</t>
+          <t>A 27747-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44456.64810185185</v>
+        <v>44354</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5370,8 +5393,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5408,14 +5436,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11368-2021</t>
+          <t>A 50117-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44263</v>
+        <v>44456.64810185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5428,7 +5456,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5465,14 +5493,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39133-2021</t>
+          <t>A 11368-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44412</v>
+        <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5485,7 +5513,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5522,14 +5550,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12901-2021</t>
+          <t>A 39133-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44271</v>
+        <v>44412</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5542,7 +5570,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5579,14 +5607,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16437-2022</t>
+          <t>A 12901-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44671</v>
+        <v>44271</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5599,7 +5627,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5636,14 +5664,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 37843-2022</t>
+          <t>A 16437-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44810</v>
+        <v>44671</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5656,7 +5684,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5693,14 +5721,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31429-2022</t>
+          <t>A 37843-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44774.85231481482</v>
+        <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5713,7 +5741,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5750,14 +5778,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51482-2021</t>
+          <t>A 31429-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44460</v>
+        <v>44774.85231481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5770,7 +5798,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5807,14 +5835,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46688-2021</t>
+          <t>A 51482-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44445.63403935185</v>
+        <v>44460</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5827,7 +5855,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5864,14 +5892,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 46688-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45771</v>
+        <v>44445.63403935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5884,7 +5912,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5921,14 +5949,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45266</v>
+        <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5941,7 +5969,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5978,14 +6006,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58928-2022</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44903</v>
+        <v>45771</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5997,13 +6025,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6040,14 +6063,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44586</v>
+        <v>45266</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6060,7 +6083,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6097,14 +6120,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 58928-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44744</v>
+        <v>44903</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6116,8 +6139,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6154,14 +6182,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44744</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6174,7 +6202,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6211,14 +6239,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16520-2025</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45751.63434027778</v>
+        <v>44855</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6230,13 +6258,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6273,14 +6296,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>44744</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6293,7 +6316,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6330,14 +6353,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>44744</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6350,7 +6373,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6387,14 +6410,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61735-2025</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46002.594375</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6407,7 +6430,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6444,14 +6467,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51353-2024</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45604.36140046296</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6464,7 +6487,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6501,14 +6524,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 16520-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45799</v>
+        <v>45751.63434027778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6520,8 +6543,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6558,14 +6586,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45799</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6578,7 +6606,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7.9</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6615,14 +6643,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6635,7 +6663,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6672,14 +6700,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6692,7 +6720,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10.8</v>
+        <v>7.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6729,14 +6757,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>45799</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6749,7 +6777,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6786,14 +6814,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44445</v>
+        <v>45799</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6806,7 +6834,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.1</v>
+        <v>10.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6843,14 +6871,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56349-2023</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45243</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6863,7 +6891,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6900,14 +6928,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6920,7 +6948,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6957,14 +6985,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45173</v>
+        <v>44445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6977,7 +7005,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>8.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7014,14 +7042,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 56349-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45317</v>
+        <v>45243</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7034,7 +7062,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7071,14 +7099,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44744</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7091,7 +7119,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7128,14 +7156,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45145</v>
+        <v>45173</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7148,7 +7176,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7185,14 +7213,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>45317</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7205,7 +7233,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7242,14 +7270,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>44744</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7261,13 +7289,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7304,14 +7327,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>45145</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7324,7 +7347,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7361,14 +7384,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62049-2025</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46006.3159837963</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7380,8 +7403,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7425,7 +7453,7 @@
         <v>45824.49658564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7482,7 +7510,7 @@
         <v>45825.62880787037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7544,7 +7572,7 @@
         <v>45104</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7601,7 +7629,7 @@
         <v>45832.59052083334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7658,7 +7686,7 @@
         <v>45408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7713,14 +7741,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44873</v>
+        <v>45933</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7734,11 +7762,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7775,14 +7803,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7794,8 +7822,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7832,14 +7865,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44810</v>
+        <v>44873</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7851,8 +7884,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7889,14 +7927,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7909,7 +7947,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7946,14 +7984,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45154</v>
+        <v>44810</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8003,14 +8041,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45933</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8022,13 +8060,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8065,14 +8098,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>45154</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8084,13 +8117,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8134,7 +8162,7 @@
         <v>44956.45393518519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8191,7 +8219,7 @@
         <v>45198</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8248,7 +8276,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8303,14 +8331,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>45240</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8323,7 +8351,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8360,14 +8388,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45240</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8380,7 +8408,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8417,14 +8445,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>45293</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8437,7 +8465,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8474,14 +8502,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>45965</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8494,7 +8522,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8531,14 +8559,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45293</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8551,7 +8579,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8595,7 +8623,7 @@
         <v>45385</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8652,7 +8680,7 @@
         <v>45470</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8714,7 +8742,7 @@
         <v>45103</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8764,14 +8792,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45965</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8784,7 +8812,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8828,7 +8856,7 @@
         <v>45715.61215277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8883,14 +8911,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44977</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8903,7 +8931,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.3</v>
+        <v>6.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8940,14 +8968,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45316</v>
+        <v>44977</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8960,7 +8988,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8997,14 +9025,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45562</v>
+        <v>45316</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9016,13 +9044,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9059,14 +9082,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>45562</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9078,8 +9101,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9116,14 +9144,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45043</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9136,7 +9164,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9173,14 +9201,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9193,7 +9221,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9230,14 +9258,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45243</v>
+        <v>45043</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9250,7 +9278,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>11.4</v>
+        <v>4.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9287,14 +9315,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45505</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9304,11 +9332,6 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -9349,14 +9372,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44455</v>
+        <v>45243</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9369,7 +9392,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>11.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9406,14 +9429,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 2542-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>46037.46063657408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9426,7 +9449,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9463,14 +9486,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 243-2026</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46027.39109953704</v>
+        <v>45505</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9482,8 +9505,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9520,14 +9548,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9540,7 +9568,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9577,14 +9605,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>44455</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9597,7 +9625,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9634,14 +9662,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 3334-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>46041.78353009259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9654,7 +9682,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9691,14 +9719,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 3152-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45145</v>
+        <v>46041.42630787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9711,7 +9739,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9748,14 +9776,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9768,7 +9796,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9805,14 +9833,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 61735-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>46002.594375</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9825,7 +9853,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9862,14 +9890,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9882,7 +9910,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9919,14 +9947,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2542-2026</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46037.46063657408</v>
+        <v>45145</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9939,7 +9967,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9976,14 +10004,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9996,7 +10024,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10033,14 +10061,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 62049-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45503</v>
+        <v>46006.3159837963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10053,7 +10081,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.4</v>
+        <v>10.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10090,14 +10118,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58140-2023</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45250</v>
+        <v>45503</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10110,7 +10138,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10147,14 +10175,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3334-2026</t>
+          <t>A 58140-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46041.78353009259</v>
+        <v>45250</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10167,7 +10195,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10204,14 +10232,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 3152-2026</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46041.42630787037</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10224,7 +10252,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10261,14 +10289,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>44564</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10281,7 +10309,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10318,14 +10346,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10338,7 +10366,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10375,14 +10403,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44564</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10395,7 +10423,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10432,14 +10460,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>45197</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10452,7 +10480,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10489,14 +10517,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45197</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10509,7 +10537,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10546,14 +10574,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>44802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10566,7 +10594,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10603,14 +10631,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44802</v>
+        <v>44381</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10623,7 +10651,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10660,14 +10688,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44381</v>
+        <v>45226</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10679,8 +10707,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10717,14 +10750,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45226</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10736,13 +10769,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10779,14 +10807,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 243-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>46027.39109953704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10799,7 +10827,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10836,14 +10864,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10856,7 +10884,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10893,14 +10921,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10913,7 +10941,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10950,14 +10978,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45266</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10970,7 +10998,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11007,14 +11035,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 9234-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45090</v>
+        <v>46070.46931712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11027,7 +11055,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11064,14 +11092,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11084,7 +11112,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11121,14 +11149,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45293</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11141,7 +11169,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11178,14 +11206,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>45266</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11198,7 +11226,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11235,14 +11263,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>45090</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11255,7 +11283,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11292,14 +11320,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11312,7 +11340,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11349,14 +11377,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>45293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11369,7 +11397,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.5</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11406,14 +11434,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44673</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11425,13 +11453,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11468,14 +11491,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44844</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11525,14 +11548,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51082-2024</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45603.46126157408</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11545,7 +11568,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11582,14 +11605,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45562</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11601,13 +11624,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>4.3</v>
+        <v>9.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11644,14 +11662,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>44673</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11663,8 +11681,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>10.8</v>
+        <v>2.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11701,14 +11724,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44859</v>
+        <v>44844</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11720,13 +11743,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11763,14 +11781,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 51082-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>45603.46126157408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11801,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>9.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11820,14 +11838,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44740</v>
+        <v>45562</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11839,8 +11857,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11877,14 +11900,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45267</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11920,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>10.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11934,14 +11957,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44485</v>
+        <v>44859</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11953,8 +11976,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11991,14 +12019,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12010,13 +12038,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12053,14 +12076,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44602</v>
+        <v>44740</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12096,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12110,14 +12133,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44354</v>
+        <v>45267</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12129,13 +12152,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>7.9</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12172,14 +12190,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44571</v>
+        <v>44485</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12210,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12229,14 +12247,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12254,7 +12272,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12291,14 +12309,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44802</v>
+        <v>44602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12311,7 +12329,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12348,14 +12366,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45317</v>
+        <v>44354</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12367,8 +12385,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>7.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12405,14 +12428,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44724</v>
+        <v>44571</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12425,7 +12448,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12462,14 +12485,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44810</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12481,8 +12504,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12519,14 +12547,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>44802</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12539,7 +12567,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12576,14 +12604,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>45317</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12596,7 +12624,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12633,14 +12661,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44441</v>
+        <v>44724</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12681,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12690,14 +12718,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45435</v>
+        <v>44810</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12709,13 +12737,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12752,14 +12775,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44802</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12772,7 +12795,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12809,14 +12832,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12828,13 +12851,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12871,14 +12889,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>44441</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12891,7 +12909,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12928,14 +12946,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45243</v>
+        <v>45435</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12947,8 +12965,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12985,14 +13008,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45216</v>
+        <v>44802</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13005,7 +13028,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13042,14 +13065,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45524</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13061,8 +13084,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13099,14 +13127,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44956</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13119,7 +13147,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>18.4</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13156,14 +13184,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>45243</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13176,7 +13204,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13213,14 +13241,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>45216</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13233,7 +13261,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13270,14 +13298,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>45524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13290,7 +13318,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13327,14 +13355,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44802</v>
+        <v>44956</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13347,7 +13375,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7.3</v>
+        <v>18.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13384,14 +13412,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45541</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13404,7 +13432,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13441,14 +13469,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45145</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13461,7 +13489,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13498,14 +13526,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 23367-2024</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45453</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13518,7 +13546,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13555,14 +13583,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13575,7 +13603,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>7.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13612,14 +13640,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>45541</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13632,7 +13660,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13666,17 +13694,17 @@
       </c>
       <c r="R203" s="2" t="inlineStr"/>
     </row>
-    <row r="204">
+    <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44855</v>
+        <v>45145</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13689,7 +13717,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13722,6 +13750,120 @@
         <v>0</v>
       </c>
       <c r="R204" s="2" t="inlineStr"/>
+    </row>
+    <row r="205" ht="15" customHeight="1">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>A 23367-2024</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>45453</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>A 9891-2025</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>45716.70479166666</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,14 +1167,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57411-2025</t>
+          <t>A 97-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45980.4487037037</v>
+        <v>45293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,17 +1187,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1220,6 +1220,190 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Dvärgpipistrell
+Större brunfladdermus
+Trollpipistrell
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 47697-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Motaggsvamp
+Fjällig taggsvamp s.str.
+Rödgul trumpetsvamp
+Tjäder
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 57411-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45980.4487037037</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Grön sköldmossa
@@ -1229,226 +1413,42 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 47697-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Motaggsvamp
-Fjällig taggsvamp s.str.
-Rödgul trumpetsvamp
-Tjäder
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 97-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45293</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Dvärgpipistrell
-Större brunfladdermus
-Trollpipistrell
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 36854-2025</t>
+          <t>A 2680-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45874.40010416666</v>
+        <v>46037.65403935185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,19 +1460,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1499,6 +1494,100 @@
         <v>5</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Klasefibbla
+Svinrot
+Springkorn
+Svart trolldruva
+Vårärt</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 2680-2026 artfynd.xlsx", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 2680-2026 karta.png", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 2680-2026 FSC-klagomål.docx", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 2680-2026 FSC-klagomål mail.docx", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 2680-2026 tillsynsbegäran.docx", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 2680-2026 tillsynsbegäran mail.docx", "A 2680-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 36854-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45874.40010416666</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Orange taggsvamp
 Spillkråka
@@ -1507,121 +1596,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36854-2025 artfynd.xlsx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36854-2025 karta.png", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36854-2025 FSC-klagomål.docx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36854-2025 FSC-klagomål mail.docx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36854-2025 tillsynsbegäran.docx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36854-2025 tillsynsbegäran mail.docx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36854-2025 prioriterade fågelarter.docx", "A 36854-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 2680-2026</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>46037.65403935185</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Svinrot
-Springkorn
-Svart trolldruva
-Vårärt</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 2680-2026 artfynd.xlsx", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 2680-2026 karta.png", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 2680-2026 FSC-klagomål.docx", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 2680-2026 FSC-klagomål mail.docx", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 2680-2026 tillsynsbegäran.docx", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 2680-2026 tillsynsbegäran mail.docx", "A 2680-2026")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 27971-2022</t>
+          <t>A 49850-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44744</v>
+        <v>45940.48542824074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1832,17 +1832,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1857,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1866,227 +1871,222 @@
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Strutbräken
+Blåsippa
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 49850-2025 artfynd.xlsx", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 49850-2025 karta.png", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 49850-2025 FSC-klagomål.docx", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 49850-2025 FSC-klagomål mail.docx", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 49850-2025 tillsynsbegäran.docx", "A 49850-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 49850-2025 tillsynsbegäran mail.docx", "A 49850-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 27971-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44744</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Blåmossa
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 47711-2023</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45198</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>4.4</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Jättesvampmal
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 49850-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45940.48542824074</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Strutbräken
-Blåsippa
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 49850-2025 artfynd.xlsx", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 49850-2025 karta.png", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 49850-2025 FSC-klagomål.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 49850-2025 FSC-klagomål mail.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 49850-2025 tillsynsbegäran.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 49850-2025 tillsynsbegäran mail.docx", "A 49850-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35937-2023</t>
+          <t>A 27058-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45148</v>
+        <v>45471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,610 +2098,610 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Persiljespindling
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 36502-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45869.56332175926</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 3711-2026</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>46043.48092592593</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 16535-2025</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45751.65542824074</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Tibast
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 35937-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45148</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Ask</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 27058-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45471</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>3.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Persiljespindling
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 36502-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45869.56332175926</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Svart taggsvamp
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 3711-2026</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>46043.48092592593</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 43525-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Slåtterfibbla
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 66734-2021</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44520</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>1.2</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>2</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Skarp dropptaggsvamp
 Svavelriska</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 16535-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45751.65542824074</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Tibast
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2887,14 +2887,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23772-2025</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45793.48637731482</v>
+        <v>45933</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,23 +2906,28 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2934,56 +2939,56 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 21726-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45933</v>
+        <v>45783.56921296296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2995,28 +3000,23 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3028,56 +3028,52 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
-        <v/>
-      </c>
-      <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>44868</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3089,14 +3085,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>14.4</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3124,45 +3125,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 23772-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>45793.48637731482</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3174,13 +3175,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3189,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3204,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3214,45 +3210,49 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35155-2023</t>
+          <t>A 55044-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45145</v>
+        <v>45967.66005787037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3299,45 +3299,49 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3349,23 +3353,28 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3377,56 +3386,52 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 35155-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>45145</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3439,7 +3444,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3448,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3463,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3473,53 +3478,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45527</v>
+        <v>44475</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3531,23 +3528,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3561,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3571,45 +3563,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>45527</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3623,17 +3615,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3642,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3651,55 +3643,55 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 36505-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44475</v>
+        <v>45869.57192129629</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3711,17 +3703,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3736,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3746,45 +3743,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9205-2026</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46070.41689814815</v>
+        <v>44868</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3796,8 +3793,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3831,45 +3833,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 9205-2026 artfynd.xlsx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 9205-2026 karta.png", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 9205-2026 FSC-klagomål.docx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 9205-2026 FSC-klagomål mail.docx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 9205-2026 tillsynsbegäran.docx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 9205-2026 tillsynsbegäran mail.docx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14092-2023</t>
+          <t>A 9205-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45009</v>
+        <v>46070.41689814815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3881,19 +3883,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3921,49 +3918,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 9205-2026 artfynd.xlsx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 9205-2026 karta.png", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 9205-2026 FSC-klagomål.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 9205-2026 FSC-klagomål mail.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 9205-2026 tillsynsbegäran.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 9205-2026 tillsynsbegäran mail.docx", "A 9205-2026")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16478-2025</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45751.57346064815</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,17 +3969,17 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -4000,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4010,45 +4003,53 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="U39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26902-2024</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45470</v>
+        <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4062,20 +4063,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4090,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4100,45 +4101,49 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <v/>
+      </c>
+      <c r="Z40">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 1946-2022</t>
+          <t>A 19793-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44575</v>
+        <v>45432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4150,14 +4155,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>6.7</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4185,45 +4195,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44868</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4235,19 +4245,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>14.4</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4275,45 +4280,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19793-2024</t>
+          <t>A 1946-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45432</v>
+        <v>44575</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4325,19 +4330,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4365,45 +4365,45 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 16478-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44868</v>
+        <v>45751.57346064815</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,13 +4415,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4455,45 +4450,45 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 21726-2025</t>
+          <t>A 26902-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45783.56921296296</v>
+        <v>45470</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4505,8 +4500,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4540,31 +4540,31 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>44260</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4685,14 +4685,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11361-2021</t>
+          <t>A 11360-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4742,14 +4742,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11360-2021</t>
+          <t>A 11361-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>44509</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44266</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44586</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44254</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44354</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44412</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44271</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44671</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44460</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5892,14 +5892,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46688-2021</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44445.63403935185</v>
+        <v>45266</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44586</v>
+        <v>44802</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.5</v>
+        <v>7.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45771</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6025,8 +6025,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6063,14 +6068,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45266</v>
+        <v>45771</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6083,7 +6088,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6120,14 +6125,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58928-2022</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44903</v>
+        <v>45043</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6139,13 +6144,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 51082-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>45603.46126157408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44855</v>
+        <v>45933</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6258,8 +6258,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6296,14 +6301,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 9891-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44744</v>
+        <v>45716.70479166666</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6316,7 +6321,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6353,14 +6358,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 28502-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44744</v>
+        <v>45103</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6373,7 +6378,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6410,14 +6415,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 56349-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>45243</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6430,7 +6435,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6467,14 +6472,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6487,7 +6492,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6524,14 +6529,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16520-2025</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45751.63434027778</v>
+        <v>45145</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6543,13 +6548,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6586,14 +6586,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51353-2024</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45604.36140046296</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6643,14 +6643,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45799</v>
+        <v>45267</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6700,14 +6700,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45799</v>
+        <v>44855</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.9</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6757,14 +6757,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45799</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6814,14 +6814,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45799</v>
+        <v>45226</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6833,8 +6833,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>10.8</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6871,14 +6876,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>45317</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6891,7 +6896,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6928,14 +6933,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6948,7 +6953,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6985,14 +6990,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 26909-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44445</v>
+        <v>45470</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7004,8 +7009,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7042,14 +7052,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56349-2023</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45243</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7062,7 +7072,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7099,14 +7109,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>45154</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7119,7 +7129,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7156,14 +7166,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45173</v>
+        <v>45293</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7176,7 +7186,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7213,14 +7223,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45317</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7233,7 +7243,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7270,14 +7280,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44744</v>
+        <v>45799</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7290,7 +7300,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>10.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7327,14 +7337,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45145</v>
+        <v>45799</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7347,7 +7357,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7384,14 +7394,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>45799</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7403,13 +7413,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7446,14 +7451,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29336-2025</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45824.49658564815</v>
+        <v>45799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7466,7 +7471,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7503,14 +7508,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29770-2025</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45825.62880787037</v>
+        <v>45965</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7522,13 +7527,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7565,14 +7565,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28981-2023</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45104</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>12.2</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7622,14 +7622,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31086-2025</t>
+          <t>A 23367-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45832.59052083334</v>
+        <v>45453</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7679,14 +7679,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16615-2024</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45408</v>
+        <v>44977</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7698,13 +7698,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7741,14 +7736,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 47714-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45933</v>
+        <v>45198</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7760,13 +7755,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7803,14 +7793,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7822,13 +7812,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7865,14 +7850,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44873</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7886,11 +7871,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7927,14 +7912,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7947,7 +7932,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7984,14 +7969,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44810</v>
+        <v>44564</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8004,7 +7989,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8041,14 +8026,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 29336-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>45824.49658564815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8061,7 +8046,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8098,14 +8083,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45154</v>
+        <v>45505</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8117,8 +8102,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8155,14 +8145,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 4443-2023</t>
+          <t>A 29770-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44956.45393518519</v>
+        <v>45825.62880787037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8174,8 +8164,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8212,14 +8207,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47714-2023</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45198</v>
+        <v>45541</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8232,7 +8227,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8269,14 +8264,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32044-2023</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45119</v>
+        <v>45562</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8290,11 +8285,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8331,14 +8326,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 31086-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45240</v>
+        <v>45832.59052083334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8351,7 +8346,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8388,14 +8383,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8408,7 +8403,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8445,14 +8440,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45293</v>
+        <v>44744</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8465,7 +8460,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8502,14 +8497,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45965</v>
+        <v>44744</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8522,7 +8517,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8559,14 +8554,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 4443-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>44956.45393518519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8579,7 +8574,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8616,14 +8611,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 12907-2024</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45385</v>
+        <v>44744</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8636,7 +8631,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>11.9</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8673,14 +8668,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26909-2024</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45470</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8692,13 +8687,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8735,14 +8725,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28502-2023</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45103</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8755,7 +8745,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8792,14 +8782,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8812,7 +8802,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8849,14 +8839,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 9562-2025</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45715.61215277778</v>
+        <v>45316</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8868,13 +8858,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8911,14 +8896,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8931,7 +8916,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8968,14 +8953,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44977</v>
+        <v>44441</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8988,7 +8973,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9025,14 +9010,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45316</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9045,7 +9030,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9082,14 +9067,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45562</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9101,13 +9086,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9144,14 +9124,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>44571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9164,7 +9144,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9201,14 +9181,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 32044-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9220,8 +9200,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9258,14 +9243,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45043</v>
+        <v>45145</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9278,7 +9263,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9315,14 +9300,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9334,8 +9319,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9372,14 +9362,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45243</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9392,7 +9382,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>11.4</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9436,7 +9426,7 @@
         <v>46037.46063657408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9486,14 +9476,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45505</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9505,13 +9495,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9548,14 +9533,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9568,7 +9553,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9605,14 +9590,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44455</v>
+        <v>44810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9625,7 +9610,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9669,7 +9654,7 @@
         <v>46041.78353009259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9726,7 +9711,7 @@
         <v>46041.42630787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9776,14 +9761,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>45243</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9796,7 +9781,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>11.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9840,7 +9825,7 @@
         <v>46002.594375</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9890,14 +9875,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9910,7 +9895,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9947,14 +9932,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45145</v>
+        <v>44844</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9967,7 +9952,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10004,14 +9989,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10024,7 +10009,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10068,7 +10053,7 @@
         <v>46006.3159837963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10118,14 +10103,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45503</v>
+        <v>44381</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10138,7 +10123,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10175,14 +10160,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58140-2023</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45250</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10195,7 +10180,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10232,14 +10217,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 46688-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>44445.63403935185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10252,7 +10237,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10289,14 +10274,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44564</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10309,7 +10294,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10346,14 +10331,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>44602</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10366,7 +10351,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10403,14 +10388,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10423,7 +10408,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10460,14 +10445,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45197</v>
+        <v>44485</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10480,7 +10465,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10517,14 +10502,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 16520-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>45751.63434027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10536,8 +10521,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10574,14 +10564,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 28981-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44802</v>
+        <v>45104</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10594,7 +10584,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.9</v>
+        <v>12.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10631,14 +10621,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44381</v>
+        <v>44455</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10651,7 +10641,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10688,14 +10678,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45226</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10707,13 +10697,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10750,14 +10735,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>44724</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10770,7 +10755,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10807,14 +10792,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 243-2026</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46027.39109953704</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10827,7 +10812,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10864,14 +10849,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 243-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>46027.39109953704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10884,7 +10869,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10921,14 +10906,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10941,7 +10926,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10978,14 +10963,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10998,7 +10983,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11042,7 +11027,7 @@
         <v>46070.46931712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11092,14 +11077,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11112,7 +11097,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11149,14 +11134,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>45173</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11169,7 +11154,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11206,14 +11191,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45266</v>
+        <v>44586</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11226,7 +11211,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11263,14 +11248,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 12907-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45090</v>
+        <v>45385</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11283,7 +11268,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>11.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11320,14 +11305,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11339,8 +11324,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11377,14 +11367,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 9562-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45293</v>
+        <v>45715.61215277778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11396,8 +11386,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11434,14 +11429,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>45243</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11454,7 +11449,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11491,14 +11486,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11511,7 +11506,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11548,14 +11543,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11568,7 +11563,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11605,14 +11600,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11625,7 +11620,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>9.5</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11662,14 +11657,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 58140-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44673</v>
+        <v>45250</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11681,13 +11676,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11724,14 +11714,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44844</v>
+        <v>44740</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11744,7 +11734,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11781,14 +11771,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51082-2024</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45603.46126157408</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11801,7 +11791,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11838,14 +11828,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45562</v>
+        <v>45266</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11857,13 +11847,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11900,14 +11885,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>45317</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11920,7 +11905,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>10.8</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11957,14 +11942,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44859</v>
+        <v>44802</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,13 +11961,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12019,14 +11999,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>45293</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12039,7 +12019,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>9.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12076,14 +12056,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44740</v>
+        <v>45435</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12095,8 +12075,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12133,14 +12118,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45267</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12153,7 +12138,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12190,14 +12175,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44485</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12210,7 +12195,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12247,14 +12232,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>44802</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,13 +12251,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12309,14 +12289,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44602</v>
+        <v>44859</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12328,8 +12308,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12366,14 +12351,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44354</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12385,13 +12370,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12428,14 +12408,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44571</v>
+        <v>44673</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12447,8 +12427,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12485,14 +12470,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>45562</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12506,11 +12491,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12547,14 +12532,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
         <v>44802</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12567,7 +12552,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.1</v>
+        <v>3.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12604,14 +12589,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45317</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12624,7 +12609,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12661,14 +12646,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44724</v>
+        <v>45240</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12681,7 +12666,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12718,14 +12703,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44810</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12738,7 +12723,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.3</v>
+        <v>9.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12775,14 +12760,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 58928-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>44903</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12794,8 +12779,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>2.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12832,14 +12822,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12852,7 +12842,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.6</v>
+        <v>10.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12889,14 +12879,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44441</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12909,7 +12899,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12946,14 +12936,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45435</v>
+        <v>44354</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12967,11 +12957,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13008,14 +12998,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44802</v>
+        <v>44445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13028,7 +13018,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13065,14 +13055,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>44810</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13084,13 +13074,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13127,14 +13112,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>45503</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13147,7 +13132,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13184,14 +13169,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45243</v>
+        <v>44873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13203,8 +13188,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13241,14 +13231,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45216</v>
+        <v>45145</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13261,7 +13251,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13298,14 +13288,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45524</v>
+        <v>45090</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13318,7 +13308,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13355,14 +13345,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44956</v>
+        <v>45524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13375,7 +13365,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>18.4</v>
+        <v>3.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13412,14 +13402,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13432,7 +13422,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13469,14 +13459,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>45197</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13489,7 +13479,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13526,14 +13516,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13545,8 +13535,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13583,14 +13578,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44802</v>
+        <v>45216</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13603,7 +13598,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13640,14 +13635,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45541</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13660,7 +13655,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13697,14 +13692,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 16615-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45145</v>
+        <v>45408</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13716,8 +13711,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13754,14 +13754,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 23367-2024</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45453</v>
+        <v>44956</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.5</v>
+        <v>18.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13811,14 +13811,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,14 +1167,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 97-2024</t>
+          <t>A 47697-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45293</v>
+        <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1220,6 +1220,190 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Motaggsvamp
+Fjällig taggsvamp s.str.
+Rödgul trumpetsvamp
+Tjäder
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 57411-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45980.4487037037</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Ullticka
+Grön sköldmossa
+Grönpyrola
+Jättesvampmal
+Trådticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 97-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Brunlångöra
 Nordfladdermus
@@ -1229,226 +1413,42 @@
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 47697-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Motaggsvamp
-Fjällig taggsvamp s.str.
-Rödgul trumpetsvamp
-Tjäder
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 57411-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45980.4487037037</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Grön sköldmossa
-Grönpyrola
-Jättesvampmal
-Trådticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2680-2026</t>
+          <t>A 36854-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46037.65403935185</v>
+        <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,14 +1460,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1494,6 +1499,99 @@
         <v>5</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Spillkråka
+Rödgul trumpetsvamp
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36854-2025 artfynd.xlsx", "A 36854-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36854-2025 karta.png", "A 36854-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36854-2025 FSC-klagomål.docx", "A 36854-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36854-2025 FSC-klagomål mail.docx", "A 36854-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36854-2025 tillsynsbegäran.docx", "A 36854-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36854-2025 tillsynsbegäran mail.docx", "A 36854-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36854-2025 prioriterade fågelarter.docx", "A 36854-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 2680-2026</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46037.65403935185</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Klasefibbla
 Svinrot
@@ -1502,126 +1600,28 @@
 Vårärt</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 2680-2026 artfynd.xlsx", "A 2680-2026")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 2680-2026 karta.png", "A 2680-2026")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 2680-2026 FSC-klagomål.docx", "A 2680-2026")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 2680-2026 FSC-klagomål mail.docx", "A 2680-2026")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 2680-2026 tillsynsbegäran.docx", "A 2680-2026")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 2680-2026 tillsynsbegäran mail.docx", "A 2680-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 36854-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45874.40010416666</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Spillkråka
-Rödgul trumpetsvamp
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36854-2025 artfynd.xlsx", "A 36854-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36854-2025 karta.png", "A 36854-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36854-2025 FSC-klagomål.docx", "A 36854-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36854-2025 FSC-klagomål mail.docx", "A 36854-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36854-2025 tillsynsbegäran.docx", "A 36854-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36854-2025 tillsynsbegäran mail.docx", "A 36854-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36854-2025 prioriterade fågelarter.docx", "A 36854-2025")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49850-2025</t>
+          <t>A 47711-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45940.48542824074</v>
+        <v>45198</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1832,19 +1832,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1871,222 +1866,227 @@
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Jättesvampmal
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 27971-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44744</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåmossa
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 49850-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45940.48542824074</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Strutbräken
 Blåsippa
 Mattlummer</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 49850-2025 artfynd.xlsx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 49850-2025 karta.png", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 49850-2025 FSC-klagomål.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 49850-2025 FSC-klagomål mail.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 49850-2025 tillsynsbegäran.docx", "A 49850-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 49850-2025 tillsynsbegäran mail.docx", "A 49850-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 27971-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44744</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåmossa
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 47711-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Jättesvampmal
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 27058-2024</t>
+          <t>A 35937-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45471</v>
+        <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2098,610 +2098,610 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm
+Ask</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 27058-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45471</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Persiljespindling
 Gröngöling</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 36502-2025</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45869.56332175926</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>3.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Svart taggsvamp
 Tjäder</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 66734-2021</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44520</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 3711-2026</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>46043.48092592593</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>5.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Spillkråka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 16535-2025</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>45751.65542824074</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>1.1</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Tibast
 Blåsippa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 35937-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45148</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 43525-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 66734-2021</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44520</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2887,14 +2887,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45933</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,20 +2906,15 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
@@ -2927,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2936,59 +2931,55 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
-        <v/>
-      </c>
-      <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 21726-2025</t>
+          <t>A 35155-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45783.56921296296</v>
+        <v>45145</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,16 +2992,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3025,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3035,45 +3026,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 36505-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44868</v>
+        <v>45869.57192129629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3087,11 +3078,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>14.4</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3125,45 +3116,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23772-2025</t>
+          <t>A 48341-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45793.48637731482</v>
+        <v>45933</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3175,23 +3166,28 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3203,56 +3199,56 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Stor bockrot</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
+        <v/>
+      </c>
+      <c r="U30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3265,7 +3261,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3303,45 +3299,49 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="U31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>45527</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3383,55 +3383,55 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35155-2023</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45145</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3443,24 +3443,29 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
@@ -3468,55 +3473,55 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35155-2023 artfynd.xlsx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35155-2023 karta.png", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35155-2023 FSC-klagomål.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35155-2023 FSC-klagomål mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35155-2023 tillsynsbegäran.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35155-2023 tillsynsbegäran mail.docx", "A 35155-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 55044-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44475</v>
+        <v>45967.66005787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3529,10 +3534,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3563,45 +3568,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45527</v>
+        <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3613,23 +3622,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3653,45 +3657,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3705,11 +3709,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3743,45 +3747,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 52046-2022</t>
+          <t>A 16478-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44868</v>
+        <v>45751.57346064815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3793,13 +3801,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3833,45 +3836,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9205-2026</t>
+          <t>A 26902-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46070.41689814815</v>
+        <v>45470</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3883,18 +3886,23 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3918,45 +3926,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 9205-2026 artfynd.xlsx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 9205-2026 karta.png", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 9205-2026 FSC-klagomål.docx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 9205-2026 FSC-klagomål mail.docx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 9205-2026 tillsynsbegäran.docx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 9205-2026 tillsynsbegäran mail.docx", "A 9205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 1946-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>44575</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3969,7 +3977,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -3978,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3993,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4003,53 +4011,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14092-2023</t>
+          <t>A 9205-2026</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45009</v>
+        <v>46070.41689814815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,19 +4061,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4101,49 +4096,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 9205-2026 artfynd.xlsx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 9205-2026 karta.png", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 9205-2026 FSC-klagomål.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 9205-2026 FSC-klagomål mail.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 9205-2026 tillsynsbegäran.docx", "A 9205-2026")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
-        <v/>
-      </c>
-      <c r="Z40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 9205-2026 tillsynsbegäran mail.docx", "A 9205-2026")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19793-2024</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45432</v>
+        <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4157,17 +4148,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>14.4</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4195,45 +4186,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 19793-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>45432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,8 +4236,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4280,45 +4276,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 19793-2024 artfynd.xlsx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 19793-2024 karta.png", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 19793-2024 FSC-klagomål.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 19793-2024 FSC-klagomål mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 19793-2024 tillsynsbegäran.docx", "A 19793-2024")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 19793-2024 tillsynsbegäran mail.docx", "A 19793-2024")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1946-2022</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44575</v>
+        <v>44868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,14 +4326,19 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4365,45 +4366,45 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 1946-2022 artfynd.xlsx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 1946-2022 karta.png", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 1946-2022 FSC-klagomål.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 1946-2022 FSC-klagomål mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 1946-2022 tillsynsbegäran.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 1946-2022 tillsynsbegäran mail.docx", "A 1946-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16478-2025</t>
+          <t>A 21726-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45751.57346064815</v>
+        <v>45783.56921296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,17 +4417,17 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4450,45 +4451,45 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16478-2025 artfynd.xlsx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 21726-2025 artfynd.xlsx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16478-2025 karta.png", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 21726-2025 karta.png", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16478-2025 FSC-klagomål.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 21726-2025 FSC-klagomål.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16478-2025 FSC-klagomål mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 21726-2025 FSC-klagomål mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16478-2025 tillsynsbegäran.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 21726-2025 tillsynsbegäran.docx", "A 21726-2025")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16478-2025 tillsynsbegäran mail.docx", "A 16478-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 21726-2025 tillsynsbegäran mail.docx", "A 21726-2025")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 26902-2024</t>
+          <t>A 23772-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45470</v>
+        <v>45793.48637731482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,16 +4501,11 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4540,31 +4536,35 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 26902-2024 artfynd.xlsx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 23772-2025 artfynd.xlsx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 26902-2024 karta.png", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 23772-2025 karta.png", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 26902-2024 FSC-klagomål.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 23772-2025 FSC-klagomål.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 26902-2024 FSC-klagomål mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 23772-2025 FSC-klagomål mail.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 26902-2024 tillsynsbegäran.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 23772-2025 tillsynsbegäran.docx", "A 23772-2025")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 26902-2024 tillsynsbegäran mail.docx", "A 26902-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 23772-2025 tillsynsbegäran mail.docx", "A 23772-2025")</f>
+        <v/>
+      </c>
+      <c r="Z45">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 23772-2025 prioriterade fågelarter.docx", "A 23772-2025")</f>
         <v/>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>44260</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44263</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44509</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44266</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44586</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44254</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44354</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44412</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44271</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44671</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44460</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5892,14 +5892,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 46688-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45266</v>
+        <v>44445.63403935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.2</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36112-2022</t>
+          <t>A 3585-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44802</v>
+        <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>7.3</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48046-2025</t>
+          <t>A 20091-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45932.67148148148</v>
+        <v>45771</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6025,13 +6025,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6068,14 +6063,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 20091-2025</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45771</v>
+        <v>45266</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6088,7 +6083,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6125,14 +6120,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18592-2023</t>
+          <t>A 58928-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45043</v>
+        <v>44903</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6144,8 +6139,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6182,14 +6182,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51082-2024</t>
+          <t>A 27970-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45603.46126157408</v>
+        <v>44744</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6239,14 +6239,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48342-2025</t>
+          <t>A 27972-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45933</v>
+        <v>44744</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6258,13 +6258,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6301,14 +6296,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9891-2025</t>
+          <t>A 16520-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45716.70479166666</v>
+        <v>45751.63434027778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6320,8 +6315,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6358,14 +6358,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28502-2023</t>
+          <t>A 11319-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45103</v>
+        <v>45371.91613425926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6415,14 +6415,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 56349-2023</t>
+          <t>A 3382-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45243</v>
+        <v>45317</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6472,14 +6472,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33892-2022</t>
+          <t>A 56349-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44790.60921296296</v>
+        <v>45243</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6529,14 +6529,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35145-2023</t>
+          <t>A 27969-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45145</v>
+        <v>44744</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6586,14 +6586,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 17979-2024</t>
+          <t>A 46671-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45419.86915509259</v>
+        <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>8.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6643,14 +6643,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 62320-2023</t>
+          <t>A 41111-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45267</v>
+        <v>45173.74025462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6700,14 +6700,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47977-2022</t>
+          <t>A 41115-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44855</v>
+        <v>45173</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6757,14 +6757,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19210-2024</t>
+          <t>A 35145-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45428.54665509259</v>
+        <v>45145</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6814,14 +6814,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 52815-2023</t>
+          <t>A 28346-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45226</v>
+        <v>45818.70325231482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6876,14 +6876,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3382-2024</t>
+          <t>A 28981-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45317</v>
+        <v>45104</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>12.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6933,14 +6933,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41702-2025</t>
+          <t>A 29336-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45902.41623842593</v>
+        <v>45824.49658564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6990,14 +6990,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26909-2024</t>
+          <t>A 29770-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45470</v>
+        <v>45825.62880787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7011,11 +7011,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7052,14 +7052,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51353-2024</t>
+          <t>A 16615-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45604.36140046296</v>
+        <v>45408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7071,8 +7071,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7109,14 +7114,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 36886-2023</t>
+          <t>A 52101-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45154</v>
+        <v>44873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7128,8 +7133,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7166,14 +7176,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 95-2024</t>
+          <t>A 42133-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45293</v>
+        <v>45177.83136574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7186,7 +7196,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7223,14 +7233,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49956-2022</t>
+          <t>A 31086-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44865.37130787037</v>
+        <v>45832.59052083334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7243,7 +7253,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7280,14 +7290,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25415-2025</t>
+          <t>A 37844-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45799</v>
+        <v>44810</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7300,7 +7310,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>10.8</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7337,14 +7347,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25396-2025</t>
+          <t>A 10280-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45799</v>
+        <v>45720.40354166667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7357,7 +7367,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.9</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7394,14 +7404,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25412-2025</t>
+          <t>A 36886-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45799</v>
+        <v>45154</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7414,7 +7424,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7451,14 +7461,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25414-2025</t>
+          <t>A 41702-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45799</v>
+        <v>45902.41623842593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7471,7 +7481,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7508,14 +7518,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 54448-2025</t>
+          <t>A 4443-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45965</v>
+        <v>44956.45393518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7528,7 +7538,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7565,14 +7575,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55532-2025</t>
+          <t>A 47714-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45971.62462962963</v>
+        <v>45198</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7585,7 +7595,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7622,14 +7632,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 23367-2024</t>
+          <t>A 32044-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45453</v>
+        <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7641,8 +7651,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7679,14 +7694,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 8611-2023</t>
+          <t>A 55941-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44977</v>
+        <v>45240</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7699,7 +7714,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7736,14 +7751,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47714-2023</t>
+          <t>A 28982-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45198</v>
+        <v>45481.47568287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7756,7 +7771,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7793,14 +7808,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60635-2024</t>
+          <t>A 92-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45644.41744212963</v>
+        <v>45293</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7813,7 +7828,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7850,14 +7865,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28346-2025</t>
+          <t>A 12907-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45818.70325231482</v>
+        <v>45385</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7869,13 +7884,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7912,14 +7922,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 72218-2021</t>
+          <t>A 26909-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44544.76424768518</v>
+        <v>45470</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7931,8 +7941,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7969,14 +7984,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 314-2022</t>
+          <t>A 28502-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44564</v>
+        <v>45103</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7989,7 +8004,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8026,14 +8041,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29336-2025</t>
+          <t>A 9562-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45824.49658564815</v>
+        <v>45715.61215277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8045,8 +8060,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8083,14 +8103,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31375-2024</t>
+          <t>A 8611-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45505</v>
+        <v>44977</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8102,13 +8122,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8145,14 +8160,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 29770-2025</t>
+          <t>A 48342-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45825.62880787037</v>
+        <v>45933</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8166,11 +8181,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8207,14 +8222,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37536-2024</t>
+          <t>A 3108-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45541</v>
+        <v>45316</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8227,7 +8242,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8264,14 +8279,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42339-2024</t>
+          <t>A 48046-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45562</v>
+        <v>45932.67148148148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8285,11 +8300,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8326,14 +8341,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31086-2025</t>
+          <t>A 42337-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45832.59052083334</v>
+        <v>45562</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8345,8 +8360,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8383,14 +8403,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2529-2023</t>
+          <t>A 18592-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44943.60554398148</v>
+        <v>45043</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8403,7 +8423,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8440,14 +8460,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27970-2022</t>
+          <t>A 1381-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44744</v>
+        <v>44936.68457175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8460,7 +8480,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8497,14 +8517,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27972-2022</t>
+          <t>A 38194-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44744</v>
+        <v>45882.65921296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8517,7 +8537,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8554,14 +8574,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4443-2023</t>
+          <t>A 56354-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44956.45393518519</v>
+        <v>45243</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8574,7 +8594,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>11.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8611,14 +8631,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27969-2022</t>
+          <t>A 31375-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44744</v>
+        <v>45505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8630,8 +8650,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8668,14 +8693,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1696-2026</t>
+          <t>A 50059-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46034.59373842592</v>
+        <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8688,7 +8713,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8725,14 +8750,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 1715-2026</t>
+          <t>A 954-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46034.60863425926</v>
+        <v>44934.7921875</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8745,7 +8770,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8782,14 +8807,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1150-2026</t>
+          <t>A 35200-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46030.98674768519</v>
+        <v>45145</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8802,7 +8827,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8839,14 +8864,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 3108-2024</t>
+          <t>A 54448-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45316</v>
+        <v>45965</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8859,7 +8884,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8896,14 +8921,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45184-2022</t>
+          <t>A 31212-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44844.39888888889</v>
+        <v>45503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8916,7 +8941,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8953,14 +8978,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 45674-2021</t>
+          <t>A 58140-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44441</v>
+        <v>45250</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8973,7 +8998,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9010,14 +9035,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1759-2025</t>
+          <t>A 51087-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45671.42385416666</v>
+        <v>45218.73296296296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9030,7 +9055,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9067,14 +9092,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2685-2026</t>
+          <t>A 55532-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46037.65710648148</v>
+        <v>45971.62462962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9087,7 +9112,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9124,14 +9149,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 1016-2022</t>
+          <t>A 314-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44571</v>
+        <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9144,7 +9169,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9181,14 +9206,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32044-2023</t>
+          <t>A 487-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45119</v>
+        <v>45298.85216435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9200,13 +9225,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9243,14 +9263,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 35113-2023</t>
+          <t>A 47576-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45145</v>
+        <v>45197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9263,7 +9283,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9300,14 +9320,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8316-2025</t>
+          <t>A 34449-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45708.6225462963</v>
+        <v>44381.63587962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9319,13 +9339,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9362,14 +9377,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42133-2023</t>
+          <t>A 35906-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45177.83136574074</v>
+        <v>44802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9382,7 +9397,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9419,14 +9434,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2542-2026</t>
+          <t>A 34450-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46037.46063657408</v>
+        <v>44381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9439,7 +9454,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9476,14 +9491,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 38194-2025</t>
+          <t>A 52815-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45882.65921296296</v>
+        <v>45226</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9495,8 +9510,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9533,14 +9553,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 60897-2025</t>
+          <t>A 1696-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45999.58038194444</v>
+        <v>46034.59373842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9553,7 +9573,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9590,14 +9610,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37844-2022</t>
+          <t>A 1715-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44810</v>
+        <v>46034.60863425926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9610,7 +9630,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9647,14 +9667,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 3334-2026</t>
+          <t>A 2542-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46041.78353009259</v>
+        <v>46037.46063657408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9667,7 +9687,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9704,14 +9724,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3152-2026</t>
+          <t>A 2685-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46041.42630787037</v>
+        <v>46037.65710648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9724,7 +9744,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.3</v>
+        <v>5.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9761,14 +9781,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56354-2023</t>
+          <t>A 3334-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45243</v>
+        <v>46041.78353009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9781,7 +9801,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>11.4</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9818,14 +9838,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61735-2025</t>
+          <t>A 3152-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46002.594375</v>
+        <v>46041.42630787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9838,7 +9858,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9875,14 +9895,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62047-2025</t>
+          <t>A 60635-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46006.30792824074</v>
+        <v>45644.41744212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9895,7 +9915,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9932,14 +9952,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45145-2022</t>
+          <t>A 60897-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44844</v>
+        <v>45999.58038194444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9952,7 +9972,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9989,14 +10009,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1381-2023</t>
+          <t>A 61735-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44936.68457175926</v>
+        <v>46002.594375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10009,7 +10029,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10046,14 +10066,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62049-2025</t>
+          <t>A 10263-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46006.3159837963</v>
+        <v>45720.38165509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10066,7 +10086,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>10.4</v>
+        <v>4.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10103,14 +10123,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 34450-2021</t>
+          <t>A 10277-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44381</v>
+        <v>45720.39836805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10123,7 +10143,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10160,14 +10180,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34193-2024</t>
+          <t>A 62311-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45524.46203703704</v>
+        <v>45266</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10180,7 +10200,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10217,14 +10237,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 46688-2021</t>
+          <t>A 62047-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44445.63403935185</v>
+        <v>46006.30792824074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10237,7 +10257,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10274,14 +10294,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 7023-2026</t>
+          <t>A 62049-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46057.66645833333</v>
+        <v>46006.3159837963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10294,7 +10314,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>10.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10331,14 +10351,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 6886-2022</t>
+          <t>A 25706-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44602</v>
+        <v>45090</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10351,7 +10371,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10388,14 +10408,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 487-2024</t>
+          <t>A 22-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45298.85216435185</v>
+        <v>45293.40865740741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10408,7 +10428,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10445,14 +10465,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 57884-2021</t>
+          <t>A 95-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44485</v>
+        <v>45293</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10502,14 +10522,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16520-2025</t>
+          <t>A 49956-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45751.63434027778</v>
+        <v>44865.37130787037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10521,13 +10541,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10564,14 +10579,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 28981-2023</t>
+          <t>A 6157-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45104</v>
+        <v>45698.40923611111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10584,7 +10599,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>12.2</v>
+        <v>2.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10621,14 +10636,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 50059-2021</t>
+          <t>A 11343-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44455</v>
+        <v>45726.49932870371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10641,7 +10656,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10678,14 +10693,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 11343-2025</t>
+          <t>A 54596-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45726.49932870371</v>
+        <v>45617.6762037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10698,7 +10713,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>9.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10735,14 +10750,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 24034-2022</t>
+          <t>A 7023-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44724</v>
+        <v>46057.66645833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10755,7 +10770,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10792,14 +10807,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 234-2026</t>
+          <t>A 16724-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46027.36018518519</v>
+        <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10811,8 +10826,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10849,14 +10869,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 243-2026</t>
+          <t>A 45145-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46027.39109953704</v>
+        <v>44844</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10869,7 +10889,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10906,14 +10926,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 231-2026</t>
+          <t>A 51082-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46027.34201388889</v>
+        <v>45603.46126157408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10926,7 +10946,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10963,14 +10983,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 233-2026</t>
+          <t>A 42339-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46027.34767361111</v>
+        <v>45562</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10982,8 +11002,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11020,14 +11045,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9234-2026</t>
+          <t>A 51026-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46070.46931712963</v>
+        <v>45603.4181712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11040,7 +11065,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.9</v>
+        <v>10.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11077,14 +11102,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 41111-2023</t>
+          <t>A 48820-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45173.74025462963</v>
+        <v>44859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11096,8 +11121,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11134,14 +11164,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 41115-2023</t>
+          <t>A 34193-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45173</v>
+        <v>45524.46203703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11154,7 +11184,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11191,14 +11221,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 3585-2022</t>
+          <t>A 234-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44586</v>
+        <v>46027.36018518519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11211,7 +11241,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11248,14 +11278,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12907-2024</t>
+          <t>A 243-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45385</v>
+        <v>46027.39109953704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11268,7 +11298,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>11.9</v>
+        <v>3.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11305,14 +11335,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 8320-2025</t>
+          <t>A 26812-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45708.62876157407</v>
+        <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11324,13 +11354,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11367,14 +11392,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 9562-2025</t>
+          <t>A 62320-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45715.61215277778</v>
+        <v>45267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11386,13 +11411,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11429,14 +11449,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 56596-2023</t>
+          <t>A 231-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45243</v>
+        <v>46027.34201388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11449,7 +11469,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11486,14 +11506,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55940-2023</t>
+          <t>A 233-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45240.30215277777</v>
+        <v>46027.34767361111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11506,7 +11526,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11543,14 +11563,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10263-2025</t>
+          <t>A 9234-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45720.38165509259</v>
+        <v>46070.46931712963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11563,7 +11583,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11600,14 +11620,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 10277-2025</t>
+          <t>A 57884-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45720.39836805555</v>
+        <v>44485</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11620,7 +11640,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11657,14 +11677,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58140-2023</t>
+          <t>A 8323-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45250</v>
+        <v>45708.6322337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11676,8 +11696,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11714,14 +11739,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 26812-2022</t>
+          <t>A 1150-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44740</v>
+        <v>46030.98674768519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11734,7 +11759,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11771,14 +11796,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 10280-2025</t>
+          <t>A 6886-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45720.40354166667</v>
+        <v>44602</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11791,7 +11816,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11828,14 +11853,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62311-2023</t>
+          <t>A 27771-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45266</v>
+        <v>44354</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11847,8 +11872,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>7.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11885,14 +11915,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 3383-2024</t>
+          <t>A 1016-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45317</v>
+        <v>44571</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11905,7 +11935,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11942,14 +11972,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35942-2022</t>
+          <t>A 8320-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44802</v>
+        <v>45708.62876157407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11961,8 +11991,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11999,14 +12034,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 92-2024</t>
+          <t>A 35942-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45293</v>
+        <v>44802</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12019,7 +12054,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12056,14 +12091,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20530-2024</t>
+          <t>A 3383-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45435</v>
+        <v>45317</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12075,13 +12110,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12118,14 +12148,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 51087-2023</t>
+          <t>A 24034-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45218.73296296296</v>
+        <v>44724</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12138,7 +12168,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12175,14 +12205,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49136-2021</t>
+          <t>A 37842-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44453.91797453703</v>
+        <v>44810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12195,7 +12225,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12232,14 +12262,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 35918-2022</t>
+          <t>A 72218-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44802</v>
+        <v>44544.76424768518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12252,7 +12282,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12289,14 +12319,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48820-2022</t>
+          <t>A 49136-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44859</v>
+        <v>44453.91797453703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12308,13 +12338,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12351,14 +12376,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 34449-2021</t>
+          <t>A 45674-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44381.63587962963</v>
+        <v>44441</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12371,7 +12396,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12408,14 +12433,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 16724-2022</t>
+          <t>A 20530-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44673</v>
+        <v>45435</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12429,11 +12454,11 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12470,14 +12495,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 42337-2024</t>
+          <t>A 35918-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45562</v>
+        <v>44802</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12489,13 +12514,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12532,14 +12552,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 35906-2022</t>
+          <t>A 8316-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44802</v>
+        <v>45708.6225462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,8 +12571,13 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12589,14 +12614,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 11319-2024</t>
+          <t>A 55940-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45371.91613425926</v>
+        <v>45240.30215277777</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12609,7 +12634,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12646,14 +12671,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 55941-2023</t>
+          <t>A 56596-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12666,7 +12691,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12703,14 +12728,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 54596-2024</t>
+          <t>A 51931-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45617.6762037037</v>
+        <v>45216</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12723,7 +12748,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12760,14 +12785,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58928-2022</t>
+          <t>A 34194-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44903</v>
+        <v>45524</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,13 +12804,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>9.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12822,14 +12842,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 51026-2024</t>
+          <t>A 4440-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45603.4181712963</v>
+        <v>44956</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12842,7 +12862,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>10.8</v>
+        <v>18.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12879,14 +12899,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 28982-2024</t>
+          <t>A 1759-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45481.47568287037</v>
+        <v>45671.42385416666</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12899,7 +12919,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12936,14 +12956,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 27771-2021</t>
+          <t>A 45184-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44354</v>
+        <v>44844.39888888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12955,13 +12975,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12998,14 +13013,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 46671-2021</t>
+          <t>A 2529-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44445</v>
+        <v>44943.60554398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13018,7 +13033,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13055,14 +13070,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 37842-2022</t>
+          <t>A 36112-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44810</v>
+        <v>44802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13075,7 +13090,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.3</v>
+        <v>7.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13112,14 +13127,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 31212-2024</t>
+          <t>A 37536-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45503</v>
+        <v>45541</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13132,7 +13147,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13169,14 +13184,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 52101-2022</t>
+          <t>A 35113-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44873</v>
+        <v>45145</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13188,13 +13203,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13231,14 +13241,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35200-2023</t>
+          <t>A 23367-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45145</v>
+        <v>45453</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13251,7 +13261,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13288,14 +13298,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 25706-2023</t>
+          <t>A 9891-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45090</v>
+        <v>45716.70479166666</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13308,7 +13318,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13345,14 +13355,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 34194-2024</t>
+          <t>A 33892-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45524</v>
+        <v>44790.60921296296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13365,7 +13375,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13402,14 +13412,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 6157-2025</t>
+          <t>A 47977-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45698.40923611111</v>
+        <v>44855</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13422,7 +13432,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13459,14 +13469,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 47576-2023</t>
+          <t>A 17979-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45197</v>
+        <v>45419.86915509259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13479,7 +13489,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13516,14 +13526,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8323-2025</t>
+          <t>A 19210-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45708.6322337963</v>
+        <v>45428.54665509259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13535,13 +13545,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13578,14 +13583,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 51931-2023</t>
+          <t>A 51353-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45216</v>
+        <v>45604.36140046296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13598,7 +13603,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13635,14 +13640,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 954-2023</t>
+          <t>A 25414-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44934.7921875</v>
+        <v>45799</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13655,7 +13660,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13692,14 +13697,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 16615-2024</t>
+          <t>A 25396-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45408</v>
+        <v>45799</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13711,13 +13716,8 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>7.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13754,14 +13754,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 4440-2023</t>
+          <t>A 25412-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44956</v>
+        <v>45799</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>18.4</v>
+        <v>6.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13811,14 +13811,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 22-2024</t>
+          <t>A 25415-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45293.40865740741</v>
+        <v>45799</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.4</v>
+        <v>10.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45980.4487037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45198</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45471</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45869.56332175926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45184</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44520</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>46043.48092592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45751.65542824074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45720.39356481482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45145</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>45869.57192129629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>45933</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>45610.55574074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>45527</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45385.50599537037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45967.66005787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>45751.57346064815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>45470</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44575</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>46070.41689814815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45783.56921296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>45793.48637731482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44260</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44263</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44509</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44266</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44586</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44254</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44354</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44412</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44271</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44671</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44460</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>44445.63403935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45771</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45266</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>44903</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44744</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44744</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>45751.63434027778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45371.91613425926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45317</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45243</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44744</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45173.74025462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45173</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>45145</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45818.70325231482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>45104</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>45824.49658564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>45825.62880787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>45408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>45177.83136574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45832.59052083334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44810</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>45720.40354166667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45154</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>45902.41623842593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44956.45393518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45198</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45240</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>45481.47568287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>45293</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>45385</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>45470</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>45103</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>45715.61215277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44977</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>45933</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>45316</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>45932.67148148148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45562</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>45043</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44936.68457175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45882.65921296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45243</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44934.7921875</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45145</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45965</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45250</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45218.73296296296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45971.62462962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45298.85216435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44381.63587962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45226</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>46034.59373842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>46034.60863425926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>46037.46063657408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>46037.65710648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>46041.78353009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>46041.42630787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45644.41744212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45999.58038194444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>46002.594375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45720.38165509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>45720.39836805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>45266</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>46006.30792824074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>46006.3159837963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>45090</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45293.40865740741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>45293</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>44865.37130787037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>45698.40923611111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>45726.49932870371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>45617.6762037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>46057.66645833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>44844</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>45603.46126157408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>45562</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>45603.4181712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45524.46203703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>46027.36018518519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>46027.39109953704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>46027.34201388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>46027.34767361111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>46070.46931712963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44485</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45708.6322337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>46030.98674768519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44602</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44354</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44571</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45708.62876157407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>44802</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45317</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>44724</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>44544.76424768518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44453.91797453703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>44441</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45435</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44802</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45708.6225462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>45240.30215277777</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45243</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45216</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45524</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44956</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45671.42385416666</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44844.39888888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44943.60554398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45541</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45145</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>45453</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>45716.70479166666</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44790.60921296296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44855</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45419.86915509259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>45428.54665509259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>45604.36140046296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>45799</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>45799</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45799</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45799</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>45538</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>45527</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>45198</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45980.4487037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45874.40010416666</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>46037.65403935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45198</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44744</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45471</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45869.56332175926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>45184</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44520</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>46043.48092592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45751.65542824074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45720.39356481482</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45145</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>45869.57192129629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>45933</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>45610.55574074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>45527</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45385.50599537037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45967.66005787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44475</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45009</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>45751.57346064815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>45470</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>44575</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>46070.41689814815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>44868</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44868</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45783.56921296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>45793.48637731482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44260</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44420</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44263</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44263</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44509</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44874</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44266</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44280</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44586</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44254</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44586.35570601852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>44460</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>44354</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44456.64810185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44412</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44271</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44671</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>44810</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44774.85231481482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44460</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>44445.63403935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>44586</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45771</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45266</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>44903</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44744</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44744</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>45751.63434027778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45371.91613425926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45317</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45243</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44744</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45173.74025462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45173</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>45145</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45818.70325231482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>45104</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>45824.49658564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>45825.62880787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>45408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44873</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>45177.83136574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45832.59052083334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>44810</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>45720.40354166667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45154</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>45902.41623842593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>44956.45393518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45198</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45240</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>45481.47568287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>45293</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>45385</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>45470</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>45103</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>45715.61215277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44977</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>45933</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>45316</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>45932.67148148148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45562</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>45043</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44936.68457175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45882.65921296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45243</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45505</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>44455</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>44934.7921875</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45145</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45965</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45250</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45218.73296296296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45971.62462962963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>44564</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45298.85216435185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45197</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44381.63587962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>45226</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>46034.59373842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>46034.60863425926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>46037.46063657408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>46037.65710648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>46041.78353009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>46041.42630787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45644.41744212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45999.58038194444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>46002.594375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45720.38165509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>45720.39836805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>45266</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>46006.30792824074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>46006.3159837963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>45090</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>45293.40865740741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>45293</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>44865.37130787037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>45698.40923611111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>45726.49932870371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>45617.6762037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>46057.66645833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>44673</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>44844</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         <v>45603.46126157408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>45562</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>45603.4181712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45524.46203703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>46027.36018518519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>46027.39109953704</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44740</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>46027.34201388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>46027.34767361111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>46070.46931712963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44485</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45708.6322337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>46030.98674768519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44602</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44354</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>44571</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45708.62876157407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>44802</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45317</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>44724</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44810</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>44544.76424768518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44453.91797453703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>44441</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45435</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44802</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45708.6225462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>45240.30215277777</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45243</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45216</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45524</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>44956</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45671.42385416666</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44844.39888888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>44943.60554398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44802</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45541</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45145</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>45453</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>45716.70479166666</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>44790.60921296296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44855</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45419.86915509259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13533,7 +13533,7 @@
         <v>45428.54665509259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>45604.36140046296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>45799</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13704,7 +13704,7 @@
         <v>45799</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>45799</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>45799</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>

--- a/Översikt SÖDERTÄLJE.xlsx
+++ b/Översikt SÖDERTÄLJE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z206"/>
+  <dimension ref="A1:Z207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45916.38128472222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44901</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>44354</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 36955-2024</t>
+          <t>A 35012-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45538</v>
+        <v>45527</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,20 +900,25 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -925,15 +930,197 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>7</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik
+Vedskivlav
+Vedtrappmossa
+Blodticka
+Flagellkvastmossa
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 12772-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44270</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skogshare
+Gulvaxing
+Mönjevaxing
+Sprödvaxing
+Toppvaxing
+Vit vaxskivling
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12772-2021 artfynd.xlsx", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12772-2021 karta.png", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12772-2021 FSC-klagomål.docx", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12772-2021 FSC-klagomål mail.docx", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12772-2021 tillsynsbegäran.docx", "A 12772-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12772-2021 tillsynsbegäran mail.docx", "A 12772-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 36955-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45538</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -944,237 +1131,50 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36955-2024 artfynd.xlsx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36955-2024 karta.png", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 36955-2024 karta knärot.png", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36955-2024 FSC-klagomål.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36955-2024 FSC-klagomål mail.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36955-2024 tillsynsbegäran.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36955-2024 tillsynsbegäran mail.docx", "A 36955-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36955-2024 prioriterade fågelarter.docx", "A 36955-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 35012-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Kortskaftad ärgspik
-Vedskivlav
-Vedtrappmossa
-Blodticka
-Flagellkvastmossa
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35012-2024 artfynd.xlsx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35012-2024 karta.png", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35012-2024 FSC-klagomål.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35012-2024 FSC-klagomål mail.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35012-2024 tillsynsbegäran.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35012-2024 tillsynsbegäran mail.docx", "A 35012-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 12772-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44270</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skogshare
-Gulvaxing
-Mönjevaxing
-Sprödvaxing
-Toppvaxing
-Vit vaxskivling
-Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12772-2021 artfynd.xlsx", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12772-2021 karta.png", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12772-2021 FSC-klagomål.docx", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12772-2021 FSC-klagomål mail.docx", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12772-2021 tillsynsbegäran.docx", "A 12772-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12772-2021 tillsynsbegäran mail.docx", "A 12772-2021")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 47697-2023</t>
+          <t>A 97-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45198</v>
+        <v>45293</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1220,6 +1220,96 @@
         <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Brunlångöra
+Nordfladdermus
+Dvärgpipistrell
+Större brunfladdermus
+Trollpipistrell
+Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 47697-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Motaggsvamp
@@ -1229,91 +1319,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47697-2023 artfynd.xlsx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47697-2023 karta.png", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47697-2023 FSC-klagomål.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47697-2023 FSC-klagomål mail.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47697-2023 tillsynsbegäran.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47697-2023 tillsynsbegäran mail.docx", "A 47697-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 47697-2023 prioriterade fågelarter.docx", "A 47697-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 57411-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45980.4487037037</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>3.5</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Ullticka
 Grön sköldmossa
@@ -1323,132 +1413,42 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 57411-2025 artfynd.xlsx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 57411-2025 karta.png", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 57411-2025 FSC-klagomål.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 57411-2025 FSC-klagomål mail.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 57411-2025 tillsynsbegäran.docx", "A 57411-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 57411-2025 tillsynsbegäran mail.docx", "A 57411-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 97-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45293</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Brunlångöra
-Nordfladdermus
-Dvärgpipistrell
-Större brunfladdermus
-Trollpipistrell
-Vattenfladdermus</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 97-2024 artfynd.xlsx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 97-2024 karta.png", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 97-2024 FSC-klagomål.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 97-2024 FSC-klagomål mail.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 97-2024 tillsynsbegäran.docx", "A 97-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 97-2024 tillsynsbegäran mail.docx", "A 97-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 36854-2025</t>
+          <t>A 2680-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45874.40010416666</v>
+        <v>46037.65403935185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,19 +1460,14 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -1499,6 +1494,100 @@
         <v>5</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Klasefibbla
+Svinrot
+Springkorn
+Svart trolldruva
+Vårärt</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 2680-2026 artfynd.xlsx", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 2680-2026 karta.png", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 2680-2026 FSC-klagomål.docx", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 2680-2026 FSC-klagomål mail.docx", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 2680-2026 tillsynsbegäran.docx", "A 2680-2026")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 2680-2026 tillsynsbegäran mail.docx", "A 2680-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 36854-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45874.40010416666</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Orange taggsvamp
 Spillkråka
@@ -1507,121 +1596,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36854-2025 artfynd.xlsx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36854-2025 karta.png", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36854-2025 FSC-klagomål.docx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36854-2025 FSC-klagomål mail.docx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36854-2025 tillsynsbegäran.docx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36854-2025 tillsynsbegäran mail.docx", "A 36854-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36854-2025 prioriterade fågelarter.docx", "A 36854-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 2680-2026</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>46037.65403935185</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla
-Svinrot
-Springkorn
-Svart trolldruva
-Vårärt</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 2680-2026 artfynd.xlsx", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 2680-2026 karta.png", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 2680-2026 FSC-klagomål.docx", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 2680-2026 FSC-klagomål mail.docx", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 2680-2026 tillsynsbegäran.docx", "A 2680-2026")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 2680-2026 tillsynsbegäran mail.docx", "A 2680-2026")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>44656</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44589</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 47711-2023</t>
+          <t>A 27971-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45198</v>
+        <v>44744</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,16 +1833,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1866,121 +1866,121 @@
         <v>3</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåmossa
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 47711-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Jättesvampmal
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 47711-2023 artfynd.xlsx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 47711-2023 karta.png", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 47711-2023 FSC-klagomål.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 47711-2023 FSC-klagomål mail.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 47711-2023 tillsynsbegäran.docx", "A 47711-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 47711-2023 tillsynsbegäran mail.docx", "A 47711-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 27971-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44744</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåmossa
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27971-2022 artfynd.xlsx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27971-2022 karta.png", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27971-2022 FSC-klagomål.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27971-2022 FSC-klagomål mail.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27971-2022 tillsynsbegäran.docx", "A 27971-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27971-2022 tillsynsbegäran mail.docx", "A 27971-2022")</f>
         <v/>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>45940.48542824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35937-2023</t>
+          <t>A 16535-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45148</v>
+        <v>45751.65542824074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2114,594 +2114,594 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Tibast
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 27058-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45471</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Persiljespindling
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 35937-2023</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45148</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm
 Ask</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35937-2023 artfynd.xlsx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35937-2023 karta.png", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35937-2023 FSC-klagomål.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35937-2023 FSC-klagomål mail.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35937-2023 tillsynsbegäran.docx", "A 35937-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35937-2023 tillsynsbegäran mail.docx", "A 35937-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 27058-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45471</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 43525-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>3.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Persiljespindling
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 27058-2024 artfynd.xlsx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 27058-2024 karta.png", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 27058-2024 FSC-klagomål.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 27058-2024 FSC-klagomål mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 27058-2024 tillsynsbegäran.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 27058-2024 tillsynsbegäran mail.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 27058-2024 prioriterade fågelarter.docx", "A 27058-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 66734-2021</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44520</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 3711-2026</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46043.48092592593</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 36502-2025</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>45869.56332175926</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SÖDERTÄLJE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G24" t="n">
         <v>3.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Svart taggsvamp
 Tjäder</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36502-2025 artfynd.xlsx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36502-2025 karta.png", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36502-2025 FSC-klagomål.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36502-2025 FSC-klagomål mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36502-2025 tillsynsbegäran.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36502-2025 tillsynsbegäran mail.docx", "A 36502-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 36502-2025 prioriterade fågelarter.docx", "A 36502-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 43525-2023</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 43525-2023 artfynd.xlsx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 43525-2023 karta.png", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 43525-2023 FSC-klagomål.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 43525-2023 FSC-klagomål mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 43525-2023 tillsynsbegäran.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 43525-2023 tillsynsbegäran mail.docx", "A 43525-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 66734-2021</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44520</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 66734-2021 artfynd.xlsx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 66734-2021 karta.png", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 66734-2021 FSC-klagomål.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 66734-2021 FSC-klagomål mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 66734-2021 tillsynsbegäran.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 66734-2021 tillsynsbegäran mail.docx", "A 66734-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 3711-2026</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>46043.48092592593</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 3711-2026 artfynd.xlsx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 3711-2026 karta.png", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 3711-2026 FSC-klagomål.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 3711-2026 FSC-klagomål mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 3711-2026 tillsynsbegäran.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 3711-2026 tillsynsbegäran mail.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 3711-2026 prioriterade fågelarter.docx", "A 3711-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 16535-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45751.65542824074</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SÖDERTÄLJE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Tibast
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 16535-2025 artfynd.xlsx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 16535-2025 karta.png", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 16535-2025 FSC-klagomål.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 16535-2025 FSC-klagomål mail.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 16535-2025 tillsynsbegäran.docx", "A 16535-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 16535-2025 tillsynsbegäran mail.docx", "A 16535-2025")</f>
         <v/>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>44824</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44813</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2887,14 +2887,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 10274-2025</t>
+          <t>A 12968-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45720.39356481482</v>
+        <v>45385.50599537037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2906,24 +2906,29 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
@@ -2931,41 +2936,41 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
         <v/>
       </c>
     </row>
@@ -2979,7 +2984,7 @@
         <v>45145</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3057,14 +3062,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36505-2025</t>
+          <t>A 55263-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45869.57192129629</v>
+        <v>44475</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,23 +3081,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3116,45 +3116,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 36505-2025 artfynd.xlsx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55263-2021 artfynd.xlsx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 36505-2025 karta.png", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55263-2021 karta.png", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 36505-2025 FSC-klagomål.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55263-2021 FSC-klagomål.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 36505-2025 FSC-klagomål mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55263-2021 FSC-klagomål mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 36505-2025 tillsynsbegäran.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55263-2021 tillsynsbegäran.docx", "A 55263-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 36505-2025 tillsynsbegäran mail.docx", "A 36505-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55263-2021 tillsynsbegäran mail.docx", "A 55263-2021")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48341-2025</t>
+          <t>A 35013-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45933</v>
+        <v>45527</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,18 +3168,18 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3196,59 +3196,55 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Stor bockrot</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 48341-2025 artfynd.xlsx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 48341-2025 karta.png", "A 48341-2025")</f>
-        <v/>
-      </c>
-      <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 48341-2025 karta knärot.png", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 48341-2025 FSC-klagomål.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 48341-2025 FSC-klagomål mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 48341-2025 tillsynsbegäran.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 48341-2025 tillsynsbegäran mail.docx", "A 48341-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 52791-2024</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45610.55574074074</v>
+        <v>44868</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,17 +3256,22 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>8.4</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3285,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3295,53 +3296,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52046-2022 artfynd.xlsx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="U31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52046-2022 karta.png", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52046-2022 FSC-klagomål.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52046-2022 FSC-klagomål mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52046-2022 tillsynsbegäran.docx", "A 52046-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52046-2022 tillsynsbegäran mail.docx", "A 52046-2022")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35013-2024</t>
+          <t>A 52791-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45527</v>
+        <v>45610.55574074074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3353,23 +3346,18 @@
           <t>SÖDERTÄLJE</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3383,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3393,45 +3381,53 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 35013-2024 artfynd.xlsx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 52791-2024 artfynd.xlsx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 35013-2024 karta.png", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 52791-2024 karta.png", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="U32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/knärot/A 52791-2024 karta knärot.png", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 35013-2024 FSC-klagomål.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 52791-2024 FSC-klagomål.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 35013-2024 FSC-klagomål mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 52791-2024 FSC-klagomål mail.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 35013-2024 tillsynsbegäran.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 52791-2024 tillsynsbegäran.docx", "A 52791-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 35013-2024 tillsynsbegäran mail.docx", "A 35013-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 52791-2024 tillsynsbegäran mail.docx", "A 52791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 52791-2024 prioriterade fågelarter.docx", "A 52791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12968-2024</t>
+          <t>A 14092-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45385.50599537037</v>
+        <v>45009</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3445,14 +3441,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3464,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3473,55 +3469,59 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 12968-2024 artfynd.xlsx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 14092-2023 artfynd.xlsx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 12968-2024 karta.png", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 14092-2023 karta.png", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 12968-2024 FSC-klagomål.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 14092-2023 FSC-klagomål.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 12968-2024 FSC-klagomål mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 14092-2023 FSC-klagomål mail.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 12968-2024 tillsynsbegäran.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 14092-2023 tillsynsbegäran.docx", "A 14092-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 12968-2024 tillsynsbegäran mail.docx", "A 12968-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 14092-2023 tillsynsbegäran mail.docx", "A 14092-2023")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 14092-2023 prioriterade fågelarter.docx", "A 14092-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55044-2025</t>
+          <t>A 10274-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45967.66005787037</v>
+        <v>45720.39356481482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,16 +3534,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3568,49 +3568,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 55044-2025 artfynd.xlsx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/artfynd/A 10274-2025 artfynd.xlsx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 55044-2025 karta.png", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/kartor/A 10274-2025 karta.png", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 55044-2025 FSC-klagomål.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomål/A 10274-2025 FSC-klagomål.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 55044-2025 FSC-klagomål mail.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/klagomålsmail/A 10274-2025 FSC-klagomål mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 55044-2025 tillsynsbegäran.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsyn/A 10274-2025 tillsynsbegäran.docx", "A 10274-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 55044-2025 tillsynsbegäran mail.docx", "A 55044-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0181/fåglar/A 55044-2025 prioriterade fågelarter.docx", "A 55044-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0181/tillsynsmail/A 10274-2025 tillsynsbegäran mail.docx", "A 10274-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55263-2021</t>
+          <t>A 52046-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44475</v>
+        <v>44868</v>
       </c>
       <c r="C35" s="1"